--- a/IPSEMG_INTERNACAO.xlsx
+++ b/IPSEMG_INTERNACAO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\PycharmProjects\Unimed\GOOGLE CLOUD RUN\GUIAS IPSEMG\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\PycharmProjects\Unimed\GOOGLE CLOUD RUN\GUIAS IPSEMG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -736,302 +736,302 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,15 +1054,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1086,7 +1086,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="114300" y="57150"/>
+          <a:off x="142875" y="47625"/>
           <a:ext cx="1266825" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN69" sqref="AN69"/>
+      <selection activeCell="AO34" sqref="AO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1424,99 +1424,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="L1" s="188" t="s">
+      <c r="L1" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="189"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
     </row>
     <row r="3" spans="1:38" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="171"/>
+      <c r="AG3" s="171"/>
+      <c r="AH3" s="172"/>
       <c r="AI3" s="51"/>
     </row>
     <row r="4" spans="1:38" s="7" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1553,7 +1553,7 @@
       <c r="AI4" s="51"/>
     </row>
     <row r="5" spans="1:38" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="160"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="AI5" s="51"/>
     </row>
     <row r="6" spans="1:38" s="7" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="160"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1632,49 +1632,49 @@
       <c r="AI6" s="51"/>
     </row>
     <row r="7" spans="1:38" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="160"/>
-      <c r="B7" s="164" t="s">
+      <c r="A7" s="169"/>
+      <c r="B7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="161" t="s">
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="162"/>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162"/>
-      <c r="AB7" s="162"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="162"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="163"/>
+      <c r="W7" s="171"/>
+      <c r="X7" s="171"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="171"/>
+      <c r="AA7" s="171"/>
+      <c r="AB7" s="171"/>
+      <c r="AC7" s="171"/>
+      <c r="AD7" s="171"/>
+      <c r="AE7" s="171"/>
+      <c r="AF7" s="171"/>
+      <c r="AG7" s="171"/>
+      <c r="AH7" s="172"/>
       <c r="AI7" s="52"/>
       <c r="AL7" s="119"/>
     </row>
     <row r="8" spans="1:38" s="30" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="160"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -1711,7 +1711,7 @@
       <c r="AI8" s="52"/>
     </row>
     <row r="9" spans="1:38" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="160"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="96" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="AI9" s="51"/>
     </row>
     <row r="10" spans="1:38" s="7" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="54"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
@@ -1787,46 +1787,46 @@
       <c r="AI10" s="51"/>
     </row>
     <row r="11" spans="1:38" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
-      <c r="B11" s="161" t="s">
+      <c r="A11" s="169"/>
+      <c r="B11" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="172"/>
-      <c r="AG11" s="172"/>
-      <c r="AH11" s="173"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="178"/>
+      <c r="AG11" s="178"/>
+      <c r="AH11" s="179"/>
       <c r="AI11" s="52"/>
     </row>
     <row r="12" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="57" t="s">
         <v>14</v>
       </c>
@@ -1869,12 +1869,12 @@
       <c r="AI12" s="60"/>
     </row>
     <row r="13" spans="1:38" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
       <c r="G13" s="115"/>
       <c r="H13" s="116"/>
       <c r="I13" s="116"/>
@@ -1904,18 +1904,18 @@
       <c r="AE13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="143"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
       <c r="AH13" s="61"/>
       <c r="AI13" s="60"/>
     </row>
     <row r="14" spans="1:38" s="3" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="160"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="181"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="112"/>
       <c r="H14" s="113"/>
       <c r="I14" s="113"/>
@@ -1947,46 +1947,46 @@
       <c r="AI14" s="60"/>
     </row>
     <row r="15" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="169" t="s">
+      <c r="A15" s="169"/>
+      <c r="B15" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="174"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="174"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="174"/>
-      <c r="AF15" s="174"/>
-      <c r="AG15" s="174"/>
-      <c r="AH15" s="176"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="180"/>
+      <c r="T15" s="180"/>
+      <c r="U15" s="180"/>
+      <c r="V15" s="180"/>
+      <c r="W15" s="180"/>
+      <c r="X15" s="180"/>
+      <c r="Y15" s="180"/>
+      <c r="Z15" s="180"/>
+      <c r="AA15" s="180"/>
+      <c r="AB15" s="180"/>
+      <c r="AC15" s="180"/>
+      <c r="AD15" s="180"/>
+      <c r="AE15" s="180"/>
+      <c r="AF15" s="180"/>
+      <c r="AG15" s="180"/>
+      <c r="AH15" s="182"/>
       <c r="AI15" s="2"/>
     </row>
     <row r="16" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="63" t="s">
         <v>14</v>
       </c>
@@ -2029,16 +2029,16 @@
       <c r="AI16" s="2"/>
     </row>
     <row r="17" spans="1:35" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
       <c r="K17" s="6"/>
       <c r="L17" s="102"/>
       <c r="M17" s="29" t="s">
@@ -2048,8 +2048,8 @@
       <c r="O17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="186"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
       <c r="R17" s="6"/>
       <c r="S17" s="96"/>
       <c r="T17" s="97"/>
@@ -2074,16 +2074,16 @@
       <c r="AI17" s="51"/>
     </row>
     <row r="18" spans="1:35" s="7" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="160"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="187"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="167"/>
       <c r="K18" s="6"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -2111,7 +2111,7 @@
       <c r="AI18" s="51"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
@@ -2150,44 +2150,44 @@
       <c r="AI19" s="2"/>
     </row>
     <row r="20" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="157"/>
-      <c r="S20" s="157"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="157"/>
-      <c r="Z20" s="157"/>
-      <c r="AA20" s="157"/>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="157"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="158"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="144"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="144"/>
+      <c r="W20" s="144"/>
+      <c r="X20" s="144"/>
+      <c r="Y20" s="144"/>
+      <c r="Z20" s="144"/>
+      <c r="AA20" s="144"/>
+      <c r="AB20" s="144"/>
+      <c r="AC20" s="144"/>
+      <c r="AD20" s="144"/>
+      <c r="AE20" s="144"/>
+      <c r="AF20" s="144"/>
+      <c r="AG20" s="144"/>
+      <c r="AH20" s="145"/>
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="160"/>
+      <c r="A21" s="169"/>
       <c r="B21" s="69" t="s">
         <v>17</v>
       </c>
@@ -2226,83 +2226,83 @@
       <c r="AI21" s="2"/>
     </row>
     <row r="22" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="160"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
-      <c r="Y22" s="157"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="157"/>
-      <c r="AB22" s="157"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="157"/>
-      <c r="AH22" s="158"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="144"/>
+      <c r="T22" s="144"/>
+      <c r="U22" s="144"/>
+      <c r="V22" s="144"/>
+      <c r="W22" s="144"/>
+      <c r="X22" s="144"/>
+      <c r="Y22" s="144"/>
+      <c r="Z22" s="144"/>
+      <c r="AA22" s="144"/>
+      <c r="AB22" s="144"/>
+      <c r="AC22" s="144"/>
+      <c r="AD22" s="144"/>
+      <c r="AE22" s="144"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="144"/>
+      <c r="AH22" s="145"/>
       <c r="AI22" s="2"/>
     </row>
     <row r="23" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="160"/>
-      <c r="B23" s="169" t="s">
+      <c r="A23" s="169"/>
+      <c r="B23" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="170"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="170"/>
-      <c r="V23" s="170"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="170"/>
-      <c r="Y23" s="170"/>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="170"/>
-      <c r="AB23" s="170"/>
-      <c r="AC23" s="170"/>
-      <c r="AD23" s="170"/>
-      <c r="AE23" s="170"/>
-      <c r="AF23" s="170"/>
-      <c r="AG23" s="170"/>
-      <c r="AH23" s="171"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="176"/>
+      <c r="N23" s="176"/>
+      <c r="O23" s="176"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="176"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="176"/>
+      <c r="X23" s="176"/>
+      <c r="Y23" s="176"/>
+      <c r="Z23" s="176"/>
+      <c r="AA23" s="176"/>
+      <c r="AB23" s="176"/>
+      <c r="AC23" s="176"/>
+      <c r="AD23" s="176"/>
+      <c r="AE23" s="176"/>
+      <c r="AF23" s="176"/>
+      <c r="AG23" s="176"/>
+      <c r="AH23" s="177"/>
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="160"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="39"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -2339,7 +2339,7 @@
       <c r="AI24" s="2"/>
     </row>
     <row r="25" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="160"/>
+      <c r="A25" s="169"/>
       <c r="B25" s="42"/>
       <c r="C25" s="104"/>
       <c r="D25" s="70" t="s">
@@ -2378,13 +2378,13 @@
       <c r="AE25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AF25" s="143"/>
-      <c r="AG25" s="143"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
       <c r="AH25" s="86"/>
       <c r="AI25" s="2"/>
     </row>
     <row r="26" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="160"/>
+      <c r="A26" s="169"/>
       <c r="B26" s="45"/>
       <c r="C26" s="46"/>
       <c r="D26" s="71"/>
@@ -2421,781 +2421,781 @@
       <c r="AI26" s="2"/>
     </row>
     <row r="27" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="160"/>
-      <c r="B27" s="130" t="s">
+      <c r="A27" s="169"/>
+      <c r="B27" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="131"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="131"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="132"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="129"/>
       <c r="AI27" s="2"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="160"/>
-      <c r="B28" s="134" t="s">
+      <c r="A28" s="169"/>
+      <c r="B28" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="134" t="s">
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="136"/>
-      <c r="AG28" s="134" t="s">
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="147"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="AH28" s="136"/>
+      <c r="AH28" s="148"/>
       <c r="AI28" s="2"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="160"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="126"/>
-      <c r="W29" s="126"/>
-      <c r="X29" s="126"/>
-      <c r="Y29" s="126"/>
-      <c r="Z29" s="126"/>
-      <c r="AA29" s="126"/>
-      <c r="AB29" s="126"/>
-      <c r="AC29" s="126"/>
-      <c r="AD29" s="126"/>
-      <c r="AE29" s="126"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="129"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="155"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+      <c r="AD29" s="155"/>
+      <c r="AE29" s="155"/>
+      <c r="AF29" s="156"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="150"/>
       <c r="AI29" s="2"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="160"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
-      <c r="X30" s="126"/>
-      <c r="Y30" s="126"/>
-      <c r="Z30" s="126"/>
-      <c r="AA30" s="126"/>
-      <c r="AB30" s="126"/>
-      <c r="AC30" s="126"/>
-      <c r="AD30" s="126"/>
-      <c r="AE30" s="126"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="129"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="155"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="155"/>
+      <c r="U30" s="155"/>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="155"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="150"/>
       <c r="AI30" s="2"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="160"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="126"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="126"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="129"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+      <c r="AD31" s="155"/>
+      <c r="AE31" s="155"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="150"/>
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="160"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="126"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="126"/>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="126"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="126"/>
-      <c r="AE32" s="126"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="129"/>
+      <c r="A32" s="169"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="156"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="150"/>
       <c r="AI32" s="2"/>
     </row>
     <row r="33" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="160"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="126"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="126"/>
-      <c r="AC33" s="126"/>
-      <c r="AD33" s="126"/>
-      <c r="AE33" s="126"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="129"/>
+      <c r="A33" s="169"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="150"/>
       <c r="AI33" s="2"/>
     </row>
     <row r="34" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="160"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="126"/>
-      <c r="X34" s="126"/>
-      <c r="Y34" s="126"/>
-      <c r="Z34" s="126"/>
-      <c r="AA34" s="126"/>
-      <c r="AB34" s="126"/>
-      <c r="AC34" s="126"/>
-      <c r="AD34" s="126"/>
-      <c r="AE34" s="126"/>
-      <c r="AF34" s="127"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="129"/>
+      <c r="A34" s="169"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="155"/>
+      <c r="Q34" s="155"/>
+      <c r="R34" s="155"/>
+      <c r="S34" s="155"/>
+      <c r="T34" s="155"/>
+      <c r="U34" s="155"/>
+      <c r="V34" s="155"/>
+      <c r="W34" s="155"/>
+      <c r="X34" s="155"/>
+      <c r="Y34" s="155"/>
+      <c r="Z34" s="155"/>
+      <c r="AA34" s="155"/>
+      <c r="AB34" s="155"/>
+      <c r="AC34" s="155"/>
+      <c r="AD34" s="155"/>
+      <c r="AE34" s="155"/>
+      <c r="AF34" s="156"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="150"/>
       <c r="AI34" s="2"/>
     </row>
     <row r="35" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="160"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="126"/>
-      <c r="W35" s="126"/>
-      <c r="X35" s="126"/>
-      <c r="Y35" s="126"/>
-      <c r="Z35" s="126"/>
-      <c r="AA35" s="126"/>
-      <c r="AB35" s="126"/>
-      <c r="AC35" s="126"/>
-      <c r="AD35" s="126"/>
-      <c r="AE35" s="126"/>
-      <c r="AF35" s="127"/>
-      <c r="AG35" s="128"/>
-      <c r="AH35" s="129"/>
+      <c r="A35" s="169"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="155"/>
+      <c r="R35" s="155"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="155"/>
+      <c r="U35" s="155"/>
+      <c r="V35" s="155"/>
+      <c r="W35" s="155"/>
+      <c r="X35" s="155"/>
+      <c r="Y35" s="155"/>
+      <c r="Z35" s="155"/>
+      <c r="AA35" s="155"/>
+      <c r="AB35" s="155"/>
+      <c r="AC35" s="155"/>
+      <c r="AD35" s="155"/>
+      <c r="AE35" s="155"/>
+      <c r="AF35" s="156"/>
+      <c r="AG35" s="149"/>
+      <c r="AH35" s="150"/>
       <c r="AI35" s="60"/>
     </row>
     <row r="36" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="160"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="126"/>
-      <c r="U36" s="126"/>
-      <c r="V36" s="126"/>
-      <c r="W36" s="126"/>
-      <c r="X36" s="126"/>
-      <c r="Y36" s="126"/>
-      <c r="Z36" s="126"/>
-      <c r="AA36" s="126"/>
-      <c r="AB36" s="126"/>
-      <c r="AC36" s="126"/>
-      <c r="AD36" s="126"/>
-      <c r="AE36" s="126"/>
-      <c r="AF36" s="127"/>
-      <c r="AG36" s="128"/>
-      <c r="AH36" s="129"/>
+      <c r="A36" s="169"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
+      <c r="U36" s="155"/>
+      <c r="V36" s="155"/>
+      <c r="W36" s="155"/>
+      <c r="X36" s="155"/>
+      <c r="Y36" s="155"/>
+      <c r="Z36" s="155"/>
+      <c r="AA36" s="155"/>
+      <c r="AB36" s="155"/>
+      <c r="AC36" s="155"/>
+      <c r="AD36" s="155"/>
+      <c r="AE36" s="155"/>
+      <c r="AF36" s="156"/>
+      <c r="AG36" s="149"/>
+      <c r="AH36" s="150"/>
       <c r="AI36" s="60"/>
     </row>
     <row r="37" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="160"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="126"/>
-      <c r="N37" s="126"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="126"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="126"/>
-      <c r="W37" s="126"/>
-      <c r="X37" s="126"/>
-      <c r="Y37" s="126"/>
-      <c r="Z37" s="126"/>
-      <c r="AA37" s="126"/>
-      <c r="AB37" s="126"/>
-      <c r="AC37" s="126"/>
-      <c r="AD37" s="126"/>
-      <c r="AE37" s="126"/>
-      <c r="AF37" s="127"/>
-      <c r="AG37" s="128"/>
-      <c r="AH37" s="129"/>
+      <c r="A37" s="169"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
+      <c r="S37" s="155"/>
+      <c r="T37" s="155"/>
+      <c r="U37" s="155"/>
+      <c r="V37" s="155"/>
+      <c r="W37" s="155"/>
+      <c r="X37" s="155"/>
+      <c r="Y37" s="155"/>
+      <c r="Z37" s="155"/>
+      <c r="AA37" s="155"/>
+      <c r="AB37" s="155"/>
+      <c r="AC37" s="155"/>
+      <c r="AD37" s="155"/>
+      <c r="AE37" s="155"/>
+      <c r="AF37" s="156"/>
+      <c r="AG37" s="149"/>
+      <c r="AH37" s="150"/>
       <c r="AI37" s="60"/>
     </row>
     <row r="38" spans="1:35" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="160"/>
-      <c r="B38" s="122"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="126"/>
-      <c r="N38" s="126"/>
-      <c r="O38" s="126"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="126"/>
-      <c r="U38" s="126"/>
-      <c r="V38" s="126"/>
-      <c r="W38" s="126"/>
-      <c r="X38" s="126"/>
-      <c r="Y38" s="126"/>
-      <c r="Z38" s="126"/>
-      <c r="AA38" s="126"/>
-      <c r="AB38" s="126"/>
-      <c r="AC38" s="126"/>
-      <c r="AD38" s="126"/>
-      <c r="AE38" s="126"/>
-      <c r="AF38" s="127"/>
-      <c r="AG38" s="128"/>
-      <c r="AH38" s="129"/>
+      <c r="A38" s="169"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="155"/>
+      <c r="R38" s="155"/>
+      <c r="S38" s="155"/>
+      <c r="T38" s="155"/>
+      <c r="U38" s="155"/>
+      <c r="V38" s="155"/>
+      <c r="W38" s="155"/>
+      <c r="X38" s="155"/>
+      <c r="Y38" s="155"/>
+      <c r="Z38" s="155"/>
+      <c r="AA38" s="155"/>
+      <c r="AB38" s="155"/>
+      <c r="AC38" s="155"/>
+      <c r="AD38" s="155"/>
+      <c r="AE38" s="155"/>
+      <c r="AF38" s="156"/>
+      <c r="AG38" s="149"/>
+      <c r="AH38" s="150"/>
       <c r="AI38" s="60"/>
     </row>
     <row r="39" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="160"/>
-      <c r="B39" s="166" t="s">
+      <c r="A39" s="169"/>
+      <c r="B39" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="167"/>
-      <c r="O39" s="167"/>
-      <c r="P39" s="167"/>
-      <c r="Q39" s="167"/>
-      <c r="R39" s="167"/>
-      <c r="S39" s="167"/>
-      <c r="T39" s="167"/>
-      <c r="U39" s="167"/>
-      <c r="V39" s="167"/>
-      <c r="W39" s="167"/>
-      <c r="X39" s="167"/>
-      <c r="Y39" s="167"/>
-      <c r="Z39" s="167"/>
-      <c r="AA39" s="167"/>
-      <c r="AB39" s="167"/>
-      <c r="AC39" s="167"/>
-      <c r="AD39" s="167"/>
-      <c r="AE39" s="167"/>
-      <c r="AF39" s="167"/>
-      <c r="AG39" s="167"/>
-      <c r="AH39" s="168"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="125"/>
+      <c r="T39" s="125"/>
+      <c r="U39" s="125"/>
+      <c r="V39" s="125"/>
+      <c r="W39" s="125"/>
+      <c r="X39" s="125"/>
+      <c r="Y39" s="125"/>
+      <c r="Z39" s="125"/>
+      <c r="AA39" s="125"/>
+      <c r="AB39" s="125"/>
+      <c r="AC39" s="125"/>
+      <c r="AD39" s="125"/>
+      <c r="AE39" s="125"/>
+      <c r="AF39" s="125"/>
+      <c r="AG39" s="125"/>
+      <c r="AH39" s="126"/>
       <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="160"/>
-      <c r="B40" s="134" t="s">
+      <c r="A40" s="169"/>
+      <c r="B40" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="134" t="s">
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="135"/>
-      <c r="P40" s="135"/>
-      <c r="Q40" s="135"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="135"/>
-      <c r="T40" s="135"/>
-      <c r="U40" s="135"/>
-      <c r="V40" s="135"/>
-      <c r="W40" s="135"/>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="135"/>
-      <c r="AA40" s="135"/>
-      <c r="AB40" s="135"/>
-      <c r="AC40" s="135"/>
-      <c r="AD40" s="135"/>
-      <c r="AE40" s="135"/>
-      <c r="AF40" s="136"/>
-      <c r="AG40" s="134" t="s">
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="147"/>
+      <c r="Q40" s="147"/>
+      <c r="R40" s="147"/>
+      <c r="S40" s="147"/>
+      <c r="T40" s="147"/>
+      <c r="U40" s="147"/>
+      <c r="V40" s="147"/>
+      <c r="W40" s="147"/>
+      <c r="X40" s="147"/>
+      <c r="Y40" s="147"/>
+      <c r="Z40" s="147"/>
+      <c r="AA40" s="147"/>
+      <c r="AB40" s="147"/>
+      <c r="AC40" s="147"/>
+      <c r="AD40" s="147"/>
+      <c r="AE40" s="147"/>
+      <c r="AF40" s="148"/>
+      <c r="AG40" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="AH40" s="136"/>
+      <c r="AH40" s="148"/>
       <c r="AI40" s="2"/>
     </row>
     <row r="41" spans="1:35" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="160"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="126"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="126"/>
-      <c r="U41" s="126"/>
-      <c r="V41" s="126"/>
-      <c r="W41" s="126"/>
-      <c r="X41" s="126"/>
-      <c r="Y41" s="126"/>
-      <c r="Z41" s="126"/>
-      <c r="AA41" s="126"/>
-      <c r="AB41" s="126"/>
-      <c r="AC41" s="126"/>
-      <c r="AD41" s="126"/>
-      <c r="AE41" s="126"/>
-      <c r="AF41" s="127"/>
-      <c r="AG41" s="128"/>
-      <c r="AH41" s="129"/>
+      <c r="A41" s="169"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="155"/>
+      <c r="Q41" s="155"/>
+      <c r="R41" s="155"/>
+      <c r="S41" s="155"/>
+      <c r="T41" s="155"/>
+      <c r="U41" s="155"/>
+      <c r="V41" s="155"/>
+      <c r="W41" s="155"/>
+      <c r="X41" s="155"/>
+      <c r="Y41" s="155"/>
+      <c r="Z41" s="155"/>
+      <c r="AA41" s="155"/>
+      <c r="AB41" s="155"/>
+      <c r="AC41" s="155"/>
+      <c r="AD41" s="155"/>
+      <c r="AE41" s="155"/>
+      <c r="AF41" s="156"/>
+      <c r="AG41" s="149"/>
+      <c r="AH41" s="150"/>
       <c r="AI41" s="60"/>
     </row>
     <row r="42" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="160"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="126"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="126"/>
-      <c r="W42" s="126"/>
-      <c r="X42" s="126"/>
-      <c r="Y42" s="126"/>
-      <c r="Z42" s="126"/>
-      <c r="AA42" s="126"/>
-      <c r="AB42" s="126"/>
-      <c r="AC42" s="126"/>
-      <c r="AD42" s="126"/>
-      <c r="AE42" s="126"/>
-      <c r="AF42" s="127"/>
-      <c r="AG42" s="128"/>
-      <c r="AH42" s="129"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="155"/>
+      <c r="Q42" s="155"/>
+      <c r="R42" s="155"/>
+      <c r="S42" s="155"/>
+      <c r="T42" s="155"/>
+      <c r="U42" s="155"/>
+      <c r="V42" s="155"/>
+      <c r="W42" s="155"/>
+      <c r="X42" s="155"/>
+      <c r="Y42" s="155"/>
+      <c r="Z42" s="155"/>
+      <c r="AA42" s="155"/>
+      <c r="AB42" s="155"/>
+      <c r="AC42" s="155"/>
+      <c r="AD42" s="155"/>
+      <c r="AE42" s="155"/>
+      <c r="AF42" s="156"/>
+      <c r="AG42" s="149"/>
+      <c r="AH42" s="150"/>
       <c r="AI42" s="60"/>
     </row>
     <row r="43" spans="1:35" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="160"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="126"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="126"/>
-      <c r="T43" s="126"/>
-      <c r="U43" s="126"/>
-      <c r="V43" s="126"/>
-      <c r="W43" s="126"/>
-      <c r="X43" s="126"/>
-      <c r="Y43" s="126"/>
-      <c r="Z43" s="126"/>
-      <c r="AA43" s="126"/>
-      <c r="AB43" s="126"/>
-      <c r="AC43" s="126"/>
-      <c r="AD43" s="126"/>
-      <c r="AE43" s="126"/>
-      <c r="AF43" s="127"/>
-      <c r="AG43" s="128"/>
-      <c r="AH43" s="129"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
+      <c r="O43" s="155"/>
+      <c r="P43" s="155"/>
+      <c r="Q43" s="155"/>
+      <c r="R43" s="155"/>
+      <c r="S43" s="155"/>
+      <c r="T43" s="155"/>
+      <c r="U43" s="155"/>
+      <c r="V43" s="155"/>
+      <c r="W43" s="155"/>
+      <c r="X43" s="155"/>
+      <c r="Y43" s="155"/>
+      <c r="Z43" s="155"/>
+      <c r="AA43" s="155"/>
+      <c r="AB43" s="155"/>
+      <c r="AC43" s="155"/>
+      <c r="AD43" s="155"/>
+      <c r="AE43" s="155"/>
+      <c r="AF43" s="156"/>
+      <c r="AG43" s="149"/>
+      <c r="AH43" s="150"/>
       <c r="AI43" s="60"/>
     </row>
     <row r="44" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="160"/>
-      <c r="B44" s="166" t="s">
+      <c r="A44" s="169"/>
+      <c r="B44" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
-      <c r="M44" s="167"/>
-      <c r="N44" s="167"/>
-      <c r="O44" s="167"/>
-      <c r="P44" s="167"/>
-      <c r="Q44" s="167"/>
-      <c r="R44" s="167"/>
-      <c r="S44" s="167"/>
-      <c r="T44" s="167"/>
-      <c r="U44" s="167"/>
-      <c r="V44" s="167"/>
-      <c r="W44" s="167"/>
-      <c r="X44" s="167"/>
-      <c r="Y44" s="167"/>
-      <c r="Z44" s="167"/>
-      <c r="AA44" s="167"/>
-      <c r="AB44" s="167"/>
-      <c r="AC44" s="167"/>
-      <c r="AD44" s="167"/>
-      <c r="AE44" s="167"/>
-      <c r="AF44" s="167"/>
-      <c r="AG44" s="167"/>
-      <c r="AH44" s="168"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+      <c r="V44" s="125"/>
+      <c r="W44" s="125"/>
+      <c r="X44" s="125"/>
+      <c r="Y44" s="125"/>
+      <c r="Z44" s="125"/>
+      <c r="AA44" s="125"/>
+      <c r="AB44" s="125"/>
+      <c r="AC44" s="125"/>
+      <c r="AD44" s="125"/>
+      <c r="AE44" s="125"/>
+      <c r="AF44" s="125"/>
+      <c r="AG44" s="125"/>
+      <c r="AH44" s="126"/>
       <c r="AI44" s="60"/>
     </row>
     <row r="45" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="160"/>
-      <c r="B45" s="134" t="s">
+      <c r="A45" s="169"/>
+      <c r="B45" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="134" t="s">
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="135"/>
-      <c r="P45" s="135"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="135"/>
-      <c r="S45" s="135"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="135"/>
-      <c r="W45" s="135"/>
-      <c r="X45" s="135"/>
-      <c r="Y45" s="135"/>
-      <c r="Z45" s="135"/>
-      <c r="AA45" s="135"/>
-      <c r="AB45" s="135"/>
-      <c r="AC45" s="135"/>
-      <c r="AD45" s="135"/>
-      <c r="AE45" s="135"/>
-      <c r="AF45" s="136"/>
-      <c r="AG45" s="134" t="s">
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="147"/>
+      <c r="R45" s="147"/>
+      <c r="S45" s="147"/>
+      <c r="T45" s="147"/>
+      <c r="U45" s="147"/>
+      <c r="V45" s="147"/>
+      <c r="W45" s="147"/>
+      <c r="X45" s="147"/>
+      <c r="Y45" s="147"/>
+      <c r="Z45" s="147"/>
+      <c r="AA45" s="147"/>
+      <c r="AB45" s="147"/>
+      <c r="AC45" s="147"/>
+      <c r="AD45" s="147"/>
+      <c r="AE45" s="147"/>
+      <c r="AF45" s="148"/>
+      <c r="AG45" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="AH45" s="136"/>
+      <c r="AH45" s="148"/>
       <c r="AI45" s="60"/>
     </row>
     <row r="46" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="160"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="126"/>
-      <c r="U46" s="126"/>
-      <c r="V46" s="126"/>
-      <c r="W46" s="126"/>
-      <c r="X46" s="126"/>
-      <c r="Y46" s="126"/>
-      <c r="Z46" s="126"/>
-      <c r="AA46" s="126"/>
-      <c r="AB46" s="126"/>
-      <c r="AC46" s="126"/>
-      <c r="AD46" s="126"/>
-      <c r="AE46" s="126"/>
-      <c r="AF46" s="127"/>
-      <c r="AG46" s="128"/>
-      <c r="AH46" s="129"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+      <c r="N46" s="155"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="155"/>
+      <c r="Q46" s="155"/>
+      <c r="R46" s="155"/>
+      <c r="S46" s="155"/>
+      <c r="T46" s="155"/>
+      <c r="U46" s="155"/>
+      <c r="V46" s="155"/>
+      <c r="W46" s="155"/>
+      <c r="X46" s="155"/>
+      <c r="Y46" s="155"/>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="155"/>
+      <c r="AC46" s="155"/>
+      <c r="AD46" s="155"/>
+      <c r="AE46" s="155"/>
+      <c r="AF46" s="156"/>
+      <c r="AG46" s="149"/>
+      <c r="AH46" s="150"/>
       <c r="AI46" s="60"/>
     </row>
     <row r="47" spans="1:35" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="160"/>
-      <c r="B47" s="166" t="s">
+      <c r="A47" s="169"/>
+      <c r="B47" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="168"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="126"/>
       <c r="J47" s="49" t="s">
         <v>35</v>
       </c>
@@ -3207,28 +3207,28 @@
       <c r="P47" s="50"/>
       <c r="Q47" s="50"/>
       <c r="R47" s="50"/>
-      <c r="S47" s="166" t="s">
+      <c r="S47" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="T47" s="167"/>
-      <c r="U47" s="167"/>
-      <c r="V47" s="167"/>
-      <c r="W47" s="167"/>
-      <c r="X47" s="167"/>
-      <c r="Y47" s="167"/>
-      <c r="Z47" s="167"/>
-      <c r="AA47" s="167"/>
-      <c r="AB47" s="167"/>
-      <c r="AC47" s="167"/>
-      <c r="AD47" s="167"/>
-      <c r="AE47" s="167"/>
-      <c r="AF47" s="167"/>
-      <c r="AG47" s="167"/>
-      <c r="AH47" s="168"/>
+      <c r="T47" s="125"/>
+      <c r="U47" s="125"/>
+      <c r="V47" s="125"/>
+      <c r="W47" s="125"/>
+      <c r="X47" s="125"/>
+      <c r="Y47" s="125"/>
+      <c r="Z47" s="125"/>
+      <c r="AA47" s="125"/>
+      <c r="AB47" s="125"/>
+      <c r="AC47" s="125"/>
+      <c r="AD47" s="125"/>
+      <c r="AE47" s="125"/>
+      <c r="AF47" s="125"/>
+      <c r="AG47" s="125"/>
+      <c r="AH47" s="126"/>
       <c r="AI47" s="72"/>
     </row>
     <row r="48" spans="1:35" s="31" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="160"/>
+      <c r="A48" s="169"/>
       <c r="B48" s="73"/>
       <c r="C48" s="74"/>
       <c r="D48" s="74"/>
@@ -3265,7 +3265,7 @@
       <c r="AI48" s="72"/>
     </row>
     <row r="49" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="160"/>
+      <c r="A49" s="169"/>
       <c r="B49" s="5"/>
       <c r="C49" s="102"/>
       <c r="D49" s="90" t="s">
@@ -3275,8 +3275,8 @@
       <c r="F49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
       <c r="I49" s="6"/>
       <c r="J49" s="12"/>
       <c r="K49" s="102"/>
@@ -3287,26 +3287,26 @@
       <c r="N49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="143"/>
-      <c r="P49" s="143"/>
+      <c r="O49" s="139"/>
+      <c r="P49" s="139"/>
       <c r="Q49" s="29"/>
       <c r="R49" s="29"/>
-      <c r="S49" s="199"/>
-      <c r="T49" s="200"/>
-      <c r="U49" s="200"/>
-      <c r="V49" s="200"/>
-      <c r="W49" s="200"/>
-      <c r="X49" s="200"/>
-      <c r="Y49" s="200"/>
-      <c r="Z49" s="200"/>
-      <c r="AA49" s="200"/>
-      <c r="AB49" s="200"/>
-      <c r="AC49" s="200"/>
-      <c r="AD49" s="200"/>
-      <c r="AE49" s="200"/>
-      <c r="AF49" s="200"/>
-      <c r="AG49" s="200"/>
-      <c r="AH49" s="201"/>
+      <c r="S49" s="140"/>
+      <c r="T49" s="141"/>
+      <c r="U49" s="141"/>
+      <c r="V49" s="141"/>
+      <c r="W49" s="141"/>
+      <c r="X49" s="141"/>
+      <c r="Y49" s="141"/>
+      <c r="Z49" s="141"/>
+      <c r="AA49" s="141"/>
+      <c r="AB49" s="141"/>
+      <c r="AC49" s="141"/>
+      <c r="AD49" s="141"/>
+      <c r="AE49" s="141"/>
+      <c r="AF49" s="141"/>
+      <c r="AG49" s="141"/>
+      <c r="AH49" s="142"/>
       <c r="AI49" s="2"/>
     </row>
     <row r="50" spans="1:40" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,60 +3328,60 @@
       <c r="P50" s="99"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="157"/>
-      <c r="U50" s="157"/>
-      <c r="V50" s="157"/>
-      <c r="W50" s="157"/>
-      <c r="X50" s="157"/>
-      <c r="Y50" s="157"/>
-      <c r="Z50" s="157"/>
-      <c r="AA50" s="157"/>
-      <c r="AB50" s="157"/>
-      <c r="AC50" s="157"/>
-      <c r="AD50" s="157"/>
-      <c r="AE50" s="157"/>
-      <c r="AF50" s="157"/>
-      <c r="AG50" s="157"/>
-      <c r="AH50" s="158"/>
+      <c r="S50" s="143"/>
+      <c r="T50" s="144"/>
+      <c r="U50" s="144"/>
+      <c r="V50" s="144"/>
+      <c r="W50" s="144"/>
+      <c r="X50" s="144"/>
+      <c r="Y50" s="144"/>
+      <c r="Z50" s="144"/>
+      <c r="AA50" s="144"/>
+      <c r="AB50" s="144"/>
+      <c r="AC50" s="144"/>
+      <c r="AD50" s="144"/>
+      <c r="AE50" s="144"/>
+      <c r="AF50" s="144"/>
+      <c r="AG50" s="144"/>
+      <c r="AH50" s="145"/>
       <c r="AI50" s="2"/>
     </row>
     <row r="51" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="131"/>
-      <c r="P51" s="131"/>
-      <c r="Q51" s="131"/>
-      <c r="R51" s="131"/>
-      <c r="S51" s="131"/>
-      <c r="T51" s="131"/>
-      <c r="U51" s="131"/>
-      <c r="V51" s="131"/>
-      <c r="W51" s="131"/>
-      <c r="X51" s="131"/>
-      <c r="Y51" s="131"/>
-      <c r="Z51" s="131"/>
-      <c r="AA51" s="131"/>
-      <c r="AB51" s="131"/>
-      <c r="AC51" s="131"/>
-      <c r="AD51" s="131"/>
-      <c r="AE51" s="131"/>
-      <c r="AF51" s="131"/>
-      <c r="AG51" s="131"/>
-      <c r="AH51" s="132"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="128"/>
+      <c r="R51" s="128"/>
+      <c r="S51" s="128"/>
+      <c r="T51" s="128"/>
+      <c r="U51" s="128"/>
+      <c r="V51" s="128"/>
+      <c r="W51" s="128"/>
+      <c r="X51" s="128"/>
+      <c r="Y51" s="128"/>
+      <c r="Z51" s="128"/>
+      <c r="AA51" s="128"/>
+      <c r="AB51" s="128"/>
+      <c r="AC51" s="128"/>
+      <c r="AD51" s="128"/>
+      <c r="AE51" s="128"/>
+      <c r="AF51" s="128"/>
+      <c r="AG51" s="128"/>
+      <c r="AH51" s="129"/>
       <c r="AI51" s="2"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.2">
@@ -3423,192 +3423,192 @@
       <c r="AI52" s="2"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B53" s="190"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
-      <c r="L53" s="191"/>
-      <c r="M53" s="191"/>
-      <c r="N53" s="191"/>
-      <c r="O53" s="191"/>
-      <c r="P53" s="191"/>
-      <c r="Q53" s="191"/>
-      <c r="R53" s="191"/>
-      <c r="S53" s="191"/>
-      <c r="T53" s="191"/>
-      <c r="U53" s="191"/>
-      <c r="V53" s="191"/>
-      <c r="W53" s="191"/>
-      <c r="X53" s="191"/>
-      <c r="Y53" s="191"/>
-      <c r="Z53" s="191"/>
-      <c r="AA53" s="191"/>
-      <c r="AB53" s="191"/>
-      <c r="AC53" s="191"/>
-      <c r="AD53" s="191"/>
-      <c r="AE53" s="191"/>
-      <c r="AF53" s="191"/>
-      <c r="AG53" s="191"/>
-      <c r="AH53" s="192"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="131"/>
+      <c r="P53" s="131"/>
+      <c r="Q53" s="131"/>
+      <c r="R53" s="131"/>
+      <c r="S53" s="131"/>
+      <c r="T53" s="131"/>
+      <c r="U53" s="131"/>
+      <c r="V53" s="131"/>
+      <c r="W53" s="131"/>
+      <c r="X53" s="131"/>
+      <c r="Y53" s="131"/>
+      <c r="Z53" s="131"/>
+      <c r="AA53" s="131"/>
+      <c r="AB53" s="131"/>
+      <c r="AC53" s="131"/>
+      <c r="AD53" s="131"/>
+      <c r="AE53" s="131"/>
+      <c r="AF53" s="131"/>
+      <c r="AG53" s="131"/>
+      <c r="AH53" s="132"/>
       <c r="AI53" s="2"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B54" s="190"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
-      <c r="H54" s="191"/>
-      <c r="I54" s="191"/>
-      <c r="J54" s="191"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="191"/>
-      <c r="M54" s="191"/>
-      <c r="N54" s="191"/>
-      <c r="O54" s="191"/>
-      <c r="P54" s="191"/>
-      <c r="Q54" s="191"/>
-      <c r="R54" s="191"/>
-      <c r="S54" s="191"/>
-      <c r="T54" s="191"/>
-      <c r="U54" s="191"/>
-      <c r="V54" s="191"/>
-      <c r="W54" s="191"/>
-      <c r="X54" s="191"/>
-      <c r="Y54" s="191"/>
-      <c r="Z54" s="191"/>
-      <c r="AA54" s="191"/>
-      <c r="AB54" s="191"/>
-      <c r="AC54" s="191"/>
-      <c r="AD54" s="191"/>
-      <c r="AE54" s="191"/>
-      <c r="AF54" s="191"/>
-      <c r="AG54" s="191"/>
-      <c r="AH54" s="192"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="131"/>
+      <c r="O54" s="131"/>
+      <c r="P54" s="131"/>
+      <c r="Q54" s="131"/>
+      <c r="R54" s="131"/>
+      <c r="S54" s="131"/>
+      <c r="T54" s="131"/>
+      <c r="U54" s="131"/>
+      <c r="V54" s="131"/>
+      <c r="W54" s="131"/>
+      <c r="X54" s="131"/>
+      <c r="Y54" s="131"/>
+      <c r="Z54" s="131"/>
+      <c r="AA54" s="131"/>
+      <c r="AB54" s="131"/>
+      <c r="AC54" s="131"/>
+      <c r="AD54" s="131"/>
+      <c r="AE54" s="131"/>
+      <c r="AF54" s="131"/>
+      <c r="AG54" s="131"/>
+      <c r="AH54" s="132"/>
       <c r="AI54" s="2"/>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A55" s="159" t="s">
+      <c r="A55" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="190"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="191"/>
-      <c r="E55" s="191"/>
-      <c r="F55" s="191"/>
-      <c r="G55" s="191"/>
-      <c r="H55" s="191"/>
-      <c r="I55" s="191"/>
-      <c r="J55" s="191"/>
-      <c r="K55" s="191"/>
-      <c r="L55" s="191"/>
-      <c r="M55" s="191"/>
-      <c r="N55" s="191"/>
-      <c r="O55" s="191"/>
-      <c r="P55" s="191"/>
-      <c r="Q55" s="191"/>
-      <c r="R55" s="191"/>
-      <c r="S55" s="191"/>
-      <c r="T55" s="191"/>
-      <c r="U55" s="191"/>
-      <c r="V55" s="191"/>
-      <c r="W55" s="191"/>
-      <c r="X55" s="191"/>
-      <c r="Y55" s="191"/>
-      <c r="Z55" s="191"/>
-      <c r="AA55" s="191"/>
-      <c r="AB55" s="191"/>
-      <c r="AC55" s="191"/>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="192"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="131"/>
+      <c r="R55" s="131"/>
+      <c r="S55" s="131"/>
+      <c r="T55" s="131"/>
+      <c r="U55" s="131"/>
+      <c r="V55" s="131"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="131"/>
+      <c r="Y55" s="131"/>
+      <c r="Z55" s="131"/>
+      <c r="AA55" s="131"/>
+      <c r="AB55" s="131"/>
+      <c r="AC55" s="131"/>
+      <c r="AD55" s="131"/>
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="131"/>
+      <c r="AG55" s="131"/>
+      <c r="AH55" s="132"/>
       <c r="AI55" s="2"/>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A56" s="159"/>
-      <c r="B56" s="190"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="191"/>
-      <c r="E56" s="191"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="191"/>
-      <c r="J56" s="191"/>
-      <c r="K56" s="191"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="191"/>
-      <c r="N56" s="191"/>
-      <c r="O56" s="191"/>
-      <c r="P56" s="191"/>
-      <c r="Q56" s="191"/>
-      <c r="R56" s="191"/>
-      <c r="S56" s="191"/>
-      <c r="T56" s="191"/>
-      <c r="U56" s="191"/>
-      <c r="V56" s="191"/>
-      <c r="W56" s="191"/>
-      <c r="X56" s="191"/>
-      <c r="Y56" s="191"/>
-      <c r="Z56" s="191"/>
-      <c r="AA56" s="191"/>
-      <c r="AB56" s="191"/>
-      <c r="AC56" s="191"/>
-      <c r="AD56" s="191"/>
-      <c r="AE56" s="191"/>
-      <c r="AF56" s="191"/>
-      <c r="AG56" s="191"/>
-      <c r="AH56" s="192"/>
+      <c r="A56" s="168"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="131"/>
+      <c r="Q56" s="131"/>
+      <c r="R56" s="131"/>
+      <c r="S56" s="131"/>
+      <c r="T56" s="131"/>
+      <c r="U56" s="131"/>
+      <c r="V56" s="131"/>
+      <c r="W56" s="131"/>
+      <c r="X56" s="131"/>
+      <c r="Y56" s="131"/>
+      <c r="Z56" s="131"/>
+      <c r="AA56" s="131"/>
+      <c r="AB56" s="131"/>
+      <c r="AC56" s="131"/>
+      <c r="AD56" s="131"/>
+      <c r="AE56" s="131"/>
+      <c r="AF56" s="131"/>
+      <c r="AG56" s="131"/>
+      <c r="AH56" s="132"/>
       <c r="AI56" s="2"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A57" s="159"/>
-      <c r="B57" s="190"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="191"/>
-      <c r="F57" s="191"/>
-      <c r="G57" s="191"/>
-      <c r="H57" s="191"/>
-      <c r="I57" s="191"/>
-      <c r="J57" s="191"/>
-      <c r="K57" s="191"/>
-      <c r="L57" s="191"/>
-      <c r="M57" s="191"/>
-      <c r="N57" s="191"/>
-      <c r="O57" s="191"/>
-      <c r="P57" s="191"/>
-      <c r="Q57" s="191"/>
-      <c r="R57" s="191"/>
-      <c r="S57" s="191"/>
-      <c r="T57" s="191"/>
-      <c r="U57" s="191"/>
-      <c r="V57" s="191"/>
-      <c r="W57" s="191"/>
-      <c r="X57" s="191"/>
-      <c r="Y57" s="191"/>
-      <c r="Z57" s="191"/>
-      <c r="AA57" s="191"/>
-      <c r="AB57" s="191"/>
-      <c r="AC57" s="191"/>
-      <c r="AD57" s="191"/>
-      <c r="AE57" s="191"/>
-      <c r="AF57" s="191"/>
-      <c r="AG57" s="191"/>
-      <c r="AH57" s="192"/>
+      <c r="A57" s="168"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="131"/>
+      <c r="P57" s="131"/>
+      <c r="Q57" s="131"/>
+      <c r="R57" s="131"/>
+      <c r="S57" s="131"/>
+      <c r="T57" s="131"/>
+      <c r="U57" s="131"/>
+      <c r="V57" s="131"/>
+      <c r="W57" s="131"/>
+      <c r="X57" s="131"/>
+      <c r="Y57" s="131"/>
+      <c r="Z57" s="131"/>
+      <c r="AA57" s="131"/>
+      <c r="AB57" s="131"/>
+      <c r="AC57" s="131"/>
+      <c r="AD57" s="131"/>
+      <c r="AE57" s="131"/>
+      <c r="AF57" s="131"/>
+      <c r="AG57" s="131"/>
+      <c r="AH57" s="132"/>
       <c r="AI57" s="2"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A58" s="159"/>
+      <c r="A58" s="168"/>
       <c r="B58" s="64" t="s">
         <v>46</v>
       </c>
@@ -3647,83 +3647,83 @@
       <c r="AI58" s="2"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A59" s="159"/>
-      <c r="B59" s="196"/>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="197"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="197"/>
-      <c r="N59" s="197"/>
-      <c r="O59" s="197"/>
-      <c r="P59" s="197"/>
-      <c r="Q59" s="197"/>
-      <c r="R59" s="197"/>
-      <c r="S59" s="197"/>
-      <c r="T59" s="197"/>
-      <c r="U59" s="197"/>
-      <c r="V59" s="197"/>
-      <c r="W59" s="197"/>
-      <c r="X59" s="197"/>
-      <c r="Y59" s="197"/>
-      <c r="Z59" s="197"/>
-      <c r="AA59" s="197"/>
-      <c r="AB59" s="197"/>
-      <c r="AC59" s="197"/>
-      <c r="AD59" s="197"/>
-      <c r="AE59" s="197"/>
-      <c r="AF59" s="197"/>
-      <c r="AG59" s="197"/>
-      <c r="AH59" s="198"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="137"/>
+      <c r="O59" s="137"/>
+      <c r="P59" s="137"/>
+      <c r="Q59" s="137"/>
+      <c r="R59" s="137"/>
+      <c r="S59" s="137"/>
+      <c r="T59" s="137"/>
+      <c r="U59" s="137"/>
+      <c r="V59" s="137"/>
+      <c r="W59" s="137"/>
+      <c r="X59" s="137"/>
+      <c r="Y59" s="137"/>
+      <c r="Z59" s="137"/>
+      <c r="AA59" s="137"/>
+      <c r="AB59" s="137"/>
+      <c r="AC59" s="137"/>
+      <c r="AD59" s="137"/>
+      <c r="AE59" s="137"/>
+      <c r="AF59" s="137"/>
+      <c r="AG59" s="137"/>
+      <c r="AH59" s="138"/>
       <c r="AI59" s="2"/>
     </row>
     <row r="60" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="159"/>
-      <c r="B60" s="193" t="s">
+      <c r="A60" s="168"/>
+      <c r="B60" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="194"/>
-      <c r="D60" s="194"/>
-      <c r="E60" s="194"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="194"/>
-      <c r="H60" s="194"/>
-      <c r="I60" s="194"/>
-      <c r="J60" s="194"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="194"/>
-      <c r="M60" s="194"/>
-      <c r="N60" s="194"/>
-      <c r="O60" s="194"/>
-      <c r="P60" s="194"/>
-      <c r="Q60" s="194"/>
-      <c r="R60" s="194"/>
-      <c r="S60" s="194"/>
-      <c r="T60" s="194"/>
-      <c r="U60" s="194"/>
-      <c r="V60" s="194"/>
-      <c r="W60" s="194"/>
-      <c r="X60" s="194"/>
-      <c r="Y60" s="194"/>
-      <c r="Z60" s="194"/>
-      <c r="AA60" s="194"/>
-      <c r="AB60" s="194"/>
-      <c r="AC60" s="194"/>
-      <c r="AD60" s="194"/>
-      <c r="AE60" s="194"/>
-      <c r="AF60" s="194"/>
-      <c r="AG60" s="194"/>
-      <c r="AH60" s="195"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="134"/>
+      <c r="P60" s="134"/>
+      <c r="Q60" s="134"/>
+      <c r="R60" s="134"/>
+      <c r="S60" s="134"/>
+      <c r="T60" s="134"/>
+      <c r="U60" s="134"/>
+      <c r="V60" s="134"/>
+      <c r="W60" s="134"/>
+      <c r="X60" s="134"/>
+      <c r="Y60" s="134"/>
+      <c r="Z60" s="134"/>
+      <c r="AA60" s="134"/>
+      <c r="AB60" s="134"/>
+      <c r="AC60" s="134"/>
+      <c r="AD60" s="134"/>
+      <c r="AE60" s="134"/>
+      <c r="AF60" s="134"/>
+      <c r="AG60" s="134"/>
+      <c r="AH60" s="135"/>
       <c r="AI60" s="2"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A61" s="159"/>
+      <c r="A61" s="168"/>
       <c r="B61" s="78" t="s">
         <v>10</v>
       </c>
@@ -3739,67 +3739,67 @@
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
-      <c r="O61" s="137"/>
-      <c r="P61" s="137"/>
-      <c r="Q61" s="137"/>
-      <c r="R61" s="137"/>
-      <c r="S61" s="137"/>
-      <c r="T61" s="137"/>
-      <c r="U61" s="137"/>
-      <c r="V61" s="137"/>
-      <c r="W61" s="137"/>
-      <c r="X61" s="137"/>
-      <c r="Y61" s="137"/>
-      <c r="Z61" s="137"/>
-      <c r="AA61" s="137"/>
-      <c r="AB61" s="137"/>
-      <c r="AC61" s="137"/>
-      <c r="AD61" s="137"/>
-      <c r="AE61" s="137"/>
-      <c r="AF61" s="137"/>
-      <c r="AG61" s="137"/>
-      <c r="AH61" s="138"/>
+      <c r="O61" s="184"/>
+      <c r="P61" s="184"/>
+      <c r="Q61" s="184"/>
+      <c r="R61" s="184"/>
+      <c r="S61" s="184"/>
+      <c r="T61" s="184"/>
+      <c r="U61" s="184"/>
+      <c r="V61" s="184"/>
+      <c r="W61" s="184"/>
+      <c r="X61" s="184"/>
+      <c r="Y61" s="184"/>
+      <c r="Z61" s="184"/>
+      <c r="AA61" s="184"/>
+      <c r="AB61" s="184"/>
+      <c r="AC61" s="184"/>
+      <c r="AD61" s="184"/>
+      <c r="AE61" s="184"/>
+      <c r="AF61" s="184"/>
+      <c r="AG61" s="184"/>
+      <c r="AH61" s="185"/>
       <c r="AI61" s="2"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A62" s="159"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="141"/>
-      <c r="J62" s="141"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="141"/>
-      <c r="M62" s="141"/>
-      <c r="N62" s="141"/>
-      <c r="O62" s="141"/>
-      <c r="P62" s="141"/>
-      <c r="Q62" s="141"/>
-      <c r="R62" s="141"/>
-      <c r="S62" s="141"/>
-      <c r="T62" s="141"/>
-      <c r="U62" s="141"/>
-      <c r="V62" s="141"/>
-      <c r="W62" s="141"/>
-      <c r="X62" s="141"/>
-      <c r="Y62" s="141"/>
-      <c r="Z62" s="141"/>
-      <c r="AA62" s="140"/>
-      <c r="AB62" s="140"/>
-      <c r="AC62" s="140"/>
-      <c r="AD62" s="140"/>
-      <c r="AE62" s="140"/>
-      <c r="AF62" s="140"/>
-      <c r="AG62" s="140"/>
-      <c r="AH62" s="142"/>
+      <c r="A62" s="168"/>
+      <c r="B62" s="186"/>
+      <c r="C62" s="187"/>
+      <c r="D62" s="187"/>
+      <c r="E62" s="187"/>
+      <c r="F62" s="187"/>
+      <c r="G62" s="187"/>
+      <c r="H62" s="187"/>
+      <c r="I62" s="188"/>
+      <c r="J62" s="188"/>
+      <c r="K62" s="188"/>
+      <c r="L62" s="188"/>
+      <c r="M62" s="188"/>
+      <c r="N62" s="188"/>
+      <c r="O62" s="188"/>
+      <c r="P62" s="188"/>
+      <c r="Q62" s="188"/>
+      <c r="R62" s="188"/>
+      <c r="S62" s="188"/>
+      <c r="T62" s="188"/>
+      <c r="U62" s="188"/>
+      <c r="V62" s="188"/>
+      <c r="W62" s="188"/>
+      <c r="X62" s="188"/>
+      <c r="Y62" s="188"/>
+      <c r="Z62" s="188"/>
+      <c r="AA62" s="187"/>
+      <c r="AB62" s="187"/>
+      <c r="AC62" s="187"/>
+      <c r="AD62" s="187"/>
+      <c r="AE62" s="187"/>
+      <c r="AF62" s="187"/>
+      <c r="AG62" s="187"/>
+      <c r="AH62" s="189"/>
       <c r="AI62" s="2"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A63" s="159"/>
+      <c r="A63" s="168"/>
       <c r="B63" s="57" t="s">
         <v>15</v>
       </c>
@@ -3842,32 +3842,32 @@
       <c r="AI63" s="2"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A64" s="159"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="151"/>
-      <c r="K64" s="151"/>
-      <c r="L64" s="151"/>
-      <c r="M64" s="151"/>
-      <c r="N64" s="151"/>
-      <c r="O64" s="151"/>
-      <c r="P64" s="151"/>
-      <c r="Q64" s="151"/>
-      <c r="R64" s="151"/>
-      <c r="S64" s="151"/>
-      <c r="T64" s="151"/>
-      <c r="U64" s="151"/>
-      <c r="V64" s="151"/>
-      <c r="W64" s="151"/>
-      <c r="X64" s="151"/>
-      <c r="Y64" s="151"/>
-      <c r="Z64" s="152"/>
+      <c r="A64" s="168"/>
+      <c r="B64" s="190"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="191"/>
+      <c r="E64" s="191"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="191"/>
+      <c r="H64" s="192"/>
+      <c r="I64" s="196"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
+      <c r="M64" s="197"/>
+      <c r="N64" s="197"/>
+      <c r="O64" s="197"/>
+      <c r="P64" s="197"/>
+      <c r="Q64" s="197"/>
+      <c r="R64" s="197"/>
+      <c r="S64" s="197"/>
+      <c r="T64" s="197"/>
+      <c r="U64" s="197"/>
+      <c r="V64" s="197"/>
+      <c r="W64" s="197"/>
+      <c r="X64" s="197"/>
+      <c r="Y64" s="197"/>
+      <c r="Z64" s="198"/>
       <c r="AA64" s="105"/>
       <c r="AB64" s="102"/>
       <c r="AC64" s="90" t="s">
@@ -3877,39 +3877,39 @@
       <c r="AE64" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AF64" s="143"/>
-      <c r="AG64" s="143"/>
+      <c r="AF64" s="139"/>
+      <c r="AG64" s="139"/>
       <c r="AH64" s="106"/>
       <c r="AI64" s="2"/>
       <c r="AN64" s="118"/>
     </row>
     <row r="65" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="159"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="148"/>
-      <c r="H65" s="149"/>
-      <c r="I65" s="153"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="154"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154"/>
-      <c r="U65" s="154"/>
-      <c r="V65" s="154"/>
-      <c r="W65" s="154"/>
-      <c r="X65" s="154"/>
-      <c r="Y65" s="154"/>
-      <c r="Z65" s="155"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="193"/>
+      <c r="C65" s="194"/>
+      <c r="D65" s="194"/>
+      <c r="E65" s="194"/>
+      <c r="F65" s="194"/>
+      <c r="G65" s="194"/>
+      <c r="H65" s="195"/>
+      <c r="I65" s="199"/>
+      <c r="J65" s="200"/>
+      <c r="K65" s="200"/>
+      <c r="L65" s="200"/>
+      <c r="M65" s="200"/>
+      <c r="N65" s="200"/>
+      <c r="O65" s="200"/>
+      <c r="P65" s="200"/>
+      <c r="Q65" s="200"/>
+      <c r="R65" s="200"/>
+      <c r="S65" s="200"/>
+      <c r="T65" s="200"/>
+      <c r="U65" s="200"/>
+      <c r="V65" s="200"/>
+      <c r="W65" s="200"/>
+      <c r="X65" s="200"/>
+      <c r="Y65" s="200"/>
+      <c r="Z65" s="201"/>
       <c r="AA65" s="23"/>
       <c r="AB65" s="23"/>
       <c r="AC65" s="23"/>
@@ -3921,7 +3921,7 @@
       <c r="AI65" s="2"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" s="159"/>
+      <c r="A66" s="168"/>
       <c r="B66" s="57"/>
       <c r="C66" s="18"/>
       <c r="D66" s="92"/>
@@ -3958,78 +3958,78 @@
       <c r="AI66" s="2"/>
     </row>
     <row r="67" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="159"/>
+      <c r="A67" s="168"/>
       <c r="B67" s="19"/>
-      <c r="C67" s="133"/>
-      <c r="D67" s="133"/>
-      <c r="E67" s="133"/>
-      <c r="F67" s="133"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="133"/>
-      <c r="P67" s="133"/>
-      <c r="Q67" s="133"/>
-      <c r="R67" s="133"/>
-      <c r="S67" s="133"/>
-      <c r="T67" s="133"/>
-      <c r="U67" s="133"/>
-      <c r="V67" s="133"/>
-      <c r="W67" s="133"/>
-      <c r="X67" s="133"/>
-      <c r="Y67" s="133"/>
-      <c r="Z67" s="133"/>
-      <c r="AA67" s="133"/>
-      <c r="AB67" s="133"/>
-      <c r="AC67" s="133"/>
-      <c r="AD67" s="133"/>
-      <c r="AE67" s="133"/>
-      <c r="AF67" s="133"/>
-      <c r="AG67" s="133"/>
+      <c r="C67" s="183"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="183"/>
+      <c r="F67" s="183"/>
+      <c r="G67" s="183"/>
+      <c r="H67" s="183"/>
+      <c r="I67" s="183"/>
+      <c r="J67" s="183"/>
+      <c r="K67" s="183"/>
+      <c r="L67" s="183"/>
+      <c r="M67" s="183"/>
+      <c r="N67" s="183"/>
+      <c r="O67" s="183"/>
+      <c r="P67" s="183"/>
+      <c r="Q67" s="183"/>
+      <c r="R67" s="183"/>
+      <c r="S67" s="183"/>
+      <c r="T67" s="183"/>
+      <c r="U67" s="183"/>
+      <c r="V67" s="183"/>
+      <c r="W67" s="183"/>
+      <c r="X67" s="183"/>
+      <c r="Y67" s="183"/>
+      <c r="Z67" s="183"/>
+      <c r="AA67" s="183"/>
+      <c r="AB67" s="183"/>
+      <c r="AC67" s="183"/>
+      <c r="AD67" s="183"/>
+      <c r="AE67" s="183"/>
+      <c r="AF67" s="183"/>
+      <c r="AG67" s="183"/>
       <c r="AH67" s="20"/>
       <c r="AI67" s="2"/>
     </row>
     <row r="68" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="159"/>
+      <c r="A68" s="168"/>
       <c r="B68" s="33"/>
-      <c r="C68" s="135" t="s">
+      <c r="C68" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="135"/>
-      <c r="H68" s="135"/>
-      <c r="I68" s="135"/>
-      <c r="J68" s="135"/>
-      <c r="K68" s="135"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
-      <c r="N68" s="135"/>
-      <c r="O68" s="135"/>
-      <c r="P68" s="135"/>
-      <c r="Q68" s="135"/>
-      <c r="R68" s="135"/>
-      <c r="S68" s="135"/>
-      <c r="T68" s="135"/>
-      <c r="U68" s="135"/>
-      <c r="V68" s="135"/>
-      <c r="W68" s="135"/>
-      <c r="X68" s="135"/>
-      <c r="Y68" s="135"/>
-      <c r="Z68" s="135"/>
-      <c r="AA68" s="135"/>
-      <c r="AB68" s="135"/>
-      <c r="AC68" s="135"/>
-      <c r="AD68" s="135"/>
-      <c r="AE68" s="135"/>
-      <c r="AF68" s="135"/>
-      <c r="AG68" s="135"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="147"/>
+      <c r="I68" s="147"/>
+      <c r="J68" s="147"/>
+      <c r="K68" s="147"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="147"/>
+      <c r="N68" s="147"/>
+      <c r="O68" s="147"/>
+      <c r="P68" s="147"/>
+      <c r="Q68" s="147"/>
+      <c r="R68" s="147"/>
+      <c r="S68" s="147"/>
+      <c r="T68" s="147"/>
+      <c r="U68" s="147"/>
+      <c r="V68" s="147"/>
+      <c r="W68" s="147"/>
+      <c r="X68" s="147"/>
+      <c r="Y68" s="147"/>
+      <c r="Z68" s="147"/>
+      <c r="AA68" s="147"/>
+      <c r="AB68" s="147"/>
+      <c r="AC68" s="147"/>
+      <c r="AD68" s="147"/>
+      <c r="AE68" s="147"/>
+      <c r="AF68" s="147"/>
+      <c r="AG68" s="147"/>
       <c r="AH68" s="26"/>
       <c r="AI68" s="2"/>
     </row>
@@ -4047,30 +4047,30 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="120" t="s">
+      <c r="M69" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="N69" s="120"/>
-      <c r="O69" s="120"/>
-      <c r="P69" s="120"/>
-      <c r="Q69" s="120"/>
-      <c r="R69" s="120"/>
-      <c r="S69" s="120"/>
-      <c r="T69" s="120"/>
-      <c r="U69" s="120"/>
-      <c r="V69" s="120"/>
-      <c r="W69" s="120"/>
-      <c r="X69" s="120"/>
-      <c r="Y69" s="120"/>
-      <c r="Z69" s="120"/>
-      <c r="AA69" s="120"/>
-      <c r="AB69" s="120"/>
-      <c r="AC69" s="120"/>
-      <c r="AD69" s="120"/>
-      <c r="AE69" s="120"/>
-      <c r="AF69" s="120"/>
-      <c r="AG69" s="120"/>
-      <c r="AH69" s="120"/>
+      <c r="N69" s="202"/>
+      <c r="O69" s="202"/>
+      <c r="P69" s="202"/>
+      <c r="Q69" s="202"/>
+      <c r="R69" s="202"/>
+      <c r="S69" s="202"/>
+      <c r="T69" s="202"/>
+      <c r="U69" s="202"/>
+      <c r="V69" s="202"/>
+      <c r="W69" s="202"/>
+      <c r="X69" s="202"/>
+      <c r="Y69" s="202"/>
+      <c r="Z69" s="202"/>
+      <c r="AA69" s="202"/>
+      <c r="AB69" s="202"/>
+      <c r="AC69" s="202"/>
+      <c r="AD69" s="202"/>
+      <c r="AE69" s="202"/>
+      <c r="AF69" s="202"/>
+      <c r="AG69" s="202"/>
+      <c r="AH69" s="202"/>
     </row>
     <row r="70" spans="1:35" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="17" t="s">
@@ -4086,56 +4086,127 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="202"/>
-      <c r="N70" s="202"/>
-      <c r="O70" s="202"/>
-      <c r="P70" s="202"/>
-      <c r="Q70" s="202"/>
-      <c r="R70" s="202"/>
-      <c r="S70" s="202"/>
-      <c r="T70" s="202"/>
-      <c r="U70" s="202"/>
-      <c r="V70" s="202"/>
-      <c r="W70" s="202"/>
-      <c r="X70" s="202"/>
-      <c r="Y70" s="202"/>
-      <c r="Z70" s="202"/>
-      <c r="AA70" s="202"/>
-      <c r="AB70" s="202"/>
-      <c r="AC70" s="202"/>
-      <c r="AD70" s="202"/>
-      <c r="AE70" s="202"/>
-      <c r="AF70" s="202"/>
-      <c r="AG70" s="202"/>
-      <c r="AH70" s="202"/>
+      <c r="M70" s="120"/>
+      <c r="N70" s="120"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="120"/>
+      <c r="Q70" s="120"/>
+      <c r="R70" s="120"/>
+      <c r="S70" s="120"/>
+      <c r="T70" s="120"/>
+      <c r="U70" s="120"/>
+      <c r="V70" s="120"/>
+      <c r="W70" s="120"/>
+      <c r="X70" s="120"/>
+      <c r="Y70" s="120"/>
+      <c r="Z70" s="120"/>
+      <c r="AA70" s="120"/>
+      <c r="AB70" s="120"/>
+      <c r="AC70" s="120"/>
+      <c r="AD70" s="120"/>
+      <c r="AE70" s="120"/>
+      <c r="AF70" s="120"/>
+      <c r="AG70" s="120"/>
+      <c r="AH70" s="120"/>
     </row>
     <row r="71" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M71" s="202"/>
-      <c r="N71" s="202"/>
-      <c r="O71" s="202"/>
-      <c r="P71" s="202"/>
-      <c r="Q71" s="202"/>
-      <c r="R71" s="202"/>
-      <c r="S71" s="202"/>
-      <c r="T71" s="202"/>
-      <c r="U71" s="202"/>
-      <c r="V71" s="202"/>
-      <c r="W71" s="202"/>
-      <c r="X71" s="202"/>
-      <c r="Y71" s="202"/>
-      <c r="Z71" s="202"/>
-      <c r="AA71" s="202"/>
-      <c r="AB71" s="202"/>
-      <c r="AC71" s="202"/>
-      <c r="AD71" s="202"/>
-      <c r="AE71" s="202"/>
-      <c r="AF71" s="202"/>
-      <c r="AG71" s="202"/>
-      <c r="AH71" s="202"/>
+      <c r="M71" s="120"/>
+      <c r="N71" s="120"/>
+      <c r="O71" s="120"/>
+      <c r="P71" s="120"/>
+      <c r="Q71" s="120"/>
+      <c r="R71" s="120"/>
+      <c r="S71" s="120"/>
+      <c r="T71" s="120"/>
+      <c r="U71" s="120"/>
+      <c r="V71" s="120"/>
+      <c r="W71" s="120"/>
+      <c r="X71" s="120"/>
+      <c r="Y71" s="120"/>
+      <c r="Z71" s="120"/>
+      <c r="AA71" s="120"/>
+      <c r="AB71" s="120"/>
+      <c r="AC71" s="120"/>
+      <c r="AD71" s="120"/>
+      <c r="AE71" s="120"/>
+      <c r="AF71" s="120"/>
+      <c r="AG71" s="120"/>
+      <c r="AH71" s="120"/>
     </row>
     <row r="72" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="M69:AH69"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="G46:AF46"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="C68:AG68"/>
+    <mergeCell ref="B64:H65"/>
+    <mergeCell ref="I64:Z65"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="B27:AH27"/>
+    <mergeCell ref="C67:AG67"/>
+    <mergeCell ref="G45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="O61:AH61"/>
+    <mergeCell ref="B62:AH62"/>
+    <mergeCell ref="AF64:AG64"/>
+    <mergeCell ref="B22:AH22"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="A55:A68"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="B3:AH3"/>
+    <mergeCell ref="V7:AH7"/>
+    <mergeCell ref="B7:U7"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B39:AH39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B44:AH44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B23:AH23"/>
+    <mergeCell ref="B11:AH11"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B15:AH15"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="B17:J18"/>
+    <mergeCell ref="B20:AH20"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G28:AF28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:AF32"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
     <mergeCell ref="L1:AG2"/>
     <mergeCell ref="S47:AH47"/>
     <mergeCell ref="B51:AH51"/>
@@ -4152,77 +4223,6 @@
     <mergeCell ref="G41:AF41"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="G28:AF28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:AF32"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="B17:J18"/>
-    <mergeCell ref="B20:AH20"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B22:AH22"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="A55:A68"/>
-    <mergeCell ref="A3:A49"/>
-    <mergeCell ref="B3:AH3"/>
-    <mergeCell ref="V7:AH7"/>
-    <mergeCell ref="B7:U7"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B39:AH39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B44:AH44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B23:AH23"/>
-    <mergeCell ref="B11:AH11"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B15:AH15"/>
-    <mergeCell ref="B27:AH27"/>
-    <mergeCell ref="C67:AG67"/>
-    <mergeCell ref="G45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="O61:AH61"/>
-    <mergeCell ref="B62:AH62"/>
-    <mergeCell ref="AF64:AG64"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="G46:AF46"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="C68:AG68"/>
-    <mergeCell ref="B64:H65"/>
-    <mergeCell ref="I64:Z65"/>
-    <mergeCell ref="M69:AH69"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>

--- a/IPSEMG_INTERNACAO.xlsx
+++ b/IPSEMG_INTERNACAO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>INSTITUTO DE PREVIDENCIA DOS SERVIDORES</t>
   </si>
@@ -181,10 +181,7 @@
     <t>GERÊNCIA DE AUDITORIA E CONTAS DA SAÚDE - GEACS</t>
   </si>
   <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>SOLICITAÇÃO DE AUTORIZAÇÃO PARA INTERNAÇÃO, NOVO PACOTE E TRATAMENTO CONTÍNUO V2</t>
+    <t>SOLICITAÇÃO DE AUTORIZAÇÃO PARA INTERNAÇÃO, NOVO PACOTE E TRATAMENTO CONTÍNUO</t>
   </si>
 </sst>
 </file>
@@ -405,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -737,44 +734,253 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -823,214 +1029,11 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,79 +1050,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10260" name="Imagem 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="123825" y="38100"/>
-          <a:ext cx="1266825" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1413,7 +1343,7 @@
   <dimension ref="A1:AP72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+      <selection activeCell="AQ13" sqref="AQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1424,102 +1354,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="L1" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="121"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="189"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
     </row>
     <row r="3" spans="1:38" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="162"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="171"/>
       <c r="AI3" s="51"/>
     </row>
     <row r="4" spans="1:38" s="7" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="159"/>
+      <c r="A4" s="168"/>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1556,7 +1503,7 @@
       <c r="AI4" s="51"/>
     </row>
     <row r="5" spans="1:38" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="159"/>
+      <c r="A5" s="168"/>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1545,7 @@
       <c r="AI5" s="51"/>
     </row>
     <row r="6" spans="1:38" s="7" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
+      <c r="A6" s="168"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1635,49 +1582,49 @@
       <c r="AI6" s="51"/>
     </row>
     <row r="7" spans="1:38" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="159"/>
-      <c r="B7" s="163" t="s">
+      <c r="A7" s="168"/>
+      <c r="B7" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="160" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="162"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="170"/>
+      <c r="AH7" s="171"/>
       <c r="AI7" s="52"/>
       <c r="AL7" s="118"/>
     </row>
     <row r="8" spans="1:38" s="30" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="159"/>
+      <c r="A8" s="168"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -1714,7 +1661,7 @@
       <c r="AI8" s="52"/>
     </row>
     <row r="9" spans="1:38" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="159"/>
+      <c r="A9" s="168"/>
       <c r="B9" s="95" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1700,7 @@
       <c r="AI9" s="51"/>
     </row>
     <row r="10" spans="1:38" s="7" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="159"/>
+      <c r="A10" s="168"/>
       <c r="B10" s="54"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
@@ -1790,46 +1737,46 @@
       <c r="AI10" s="51"/>
     </row>
     <row r="11" spans="1:38" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="159"/>
-      <c r="B11" s="160" t="s">
+      <c r="A11" s="168"/>
+      <c r="B11" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="171"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="171"/>
-      <c r="AA11" s="171"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="171"/>
-      <c r="AD11" s="171"/>
-      <c r="AE11" s="171"/>
-      <c r="AF11" s="171"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="172"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="177"/>
+      <c r="AA11" s="177"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="177"/>
+      <c r="AH11" s="178"/>
       <c r="AI11" s="52"/>
     </row>
     <row r="12" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="159"/>
+      <c r="A12" s="168"/>
       <c r="B12" s="57" t="s">
         <v>14</v>
       </c>
@@ -1872,12 +1819,12 @@
       <c r="AI12" s="60"/>
     </row>
     <row r="13" spans="1:38" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="159"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="178"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="114"/>
       <c r="H13" s="115"/>
       <c r="I13" s="115"/>
@@ -1907,18 +1854,18 @@
       <c r="AE13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AF13" s="154"/>
-      <c r="AG13" s="154"/>
+      <c r="AF13" s="138"/>
+      <c r="AG13" s="138"/>
       <c r="AH13" s="61"/>
       <c r="AI13" s="60"/>
     </row>
     <row r="14" spans="1:38" s="3" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="159"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="180"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="111"/>
       <c r="H14" s="112"/>
       <c r="I14" s="112"/>
@@ -1950,46 +1897,46 @@
       <c r="AI14" s="60"/>
     </row>
     <row r="15" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="159"/>
-      <c r="B15" s="168" t="s">
+      <c r="A15" s="168"/>
+      <c r="B15" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="175"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="179"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="179"/>
+      <c r="V15" s="179"/>
+      <c r="W15" s="179"/>
+      <c r="X15" s="179"/>
+      <c r="Y15" s="179"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="179"/>
+      <c r="AB15" s="179"/>
+      <c r="AC15" s="179"/>
+      <c r="AD15" s="179"/>
+      <c r="AE15" s="179"/>
+      <c r="AF15" s="179"/>
+      <c r="AG15" s="179"/>
+      <c r="AH15" s="181"/>
       <c r="AI15" s="2"/>
     </row>
     <row r="16" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="159"/>
+      <c r="A16" s="168"/>
       <c r="B16" s="63" t="s">
         <v>14</v>
       </c>
@@ -2032,16 +1979,16 @@
       <c r="AI16" s="2"/>
     </row>
     <row r="17" spans="1:42" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="159"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="183"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="163"/>
       <c r="K17" s="6"/>
       <c r="L17" s="101"/>
       <c r="M17" s="29" t="s">
@@ -2051,8 +1998,8 @@
       <c r="O17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
       <c r="R17" s="6"/>
       <c r="S17" s="95"/>
       <c r="T17" s="96"/>
@@ -2077,16 +2024,16 @@
       <c r="AI17" s="51"/>
     </row>
     <row r="18" spans="1:42" s="7" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="159"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="186"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="166"/>
       <c r="K18" s="6"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -2114,7 +2061,7 @@
       <c r="AI18" s="51"/>
     </row>
     <row r="19" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="159"/>
+      <c r="A19" s="168"/>
       <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
@@ -2153,44 +2100,44 @@
       <c r="AI19" s="2"/>
     </row>
     <row r="20" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="159"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="156"/>
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="156"/>
-      <c r="AH20" s="157"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="144"/>
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="159"/>
+      <c r="A21" s="168"/>
       <c r="B21" s="69" t="s">
         <v>17</v>
       </c>
@@ -2230,83 +2177,83 @@
       <c r="AP21" s="117"/>
     </row>
     <row r="22" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="159"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="156"/>
-      <c r="AH22" s="157"/>
+      <c r="A22" s="168"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="143"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="143"/>
+      <c r="Z22" s="143"/>
+      <c r="AA22" s="143"/>
+      <c r="AB22" s="143"/>
+      <c r="AC22" s="143"/>
+      <c r="AD22" s="143"/>
+      <c r="AE22" s="143"/>
+      <c r="AF22" s="143"/>
+      <c r="AG22" s="143"/>
+      <c r="AH22" s="144"/>
       <c r="AI22" s="2"/>
     </row>
     <row r="23" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="159"/>
-      <c r="B23" s="168" t="s">
+      <c r="A23" s="168"/>
+      <c r="B23" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="169"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="169"/>
-      <c r="T23" s="169"/>
-      <c r="U23" s="169"/>
-      <c r="V23" s="169"/>
-      <c r="W23" s="169"/>
-      <c r="X23" s="169"/>
-      <c r="Y23" s="169"/>
-      <c r="Z23" s="169"/>
-      <c r="AA23" s="169"/>
-      <c r="AB23" s="169"/>
-      <c r="AC23" s="169"/>
-      <c r="AD23" s="169"/>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="169"/>
-      <c r="AG23" s="169"/>
-      <c r="AH23" s="170"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="175"/>
+      <c r="Y23" s="175"/>
+      <c r="Z23" s="175"/>
+      <c r="AA23" s="175"/>
+      <c r="AB23" s="175"/>
+      <c r="AC23" s="175"/>
+      <c r="AD23" s="175"/>
+      <c r="AE23" s="175"/>
+      <c r="AF23" s="175"/>
+      <c r="AG23" s="175"/>
+      <c r="AH23" s="176"/>
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="159"/>
+      <c r="A24" s="168"/>
       <c r="B24" s="39"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -2343,7 +2290,7 @@
       <c r="AI24" s="2"/>
     </row>
     <row r="25" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="159"/>
+      <c r="A25" s="168"/>
       <c r="B25" s="42"/>
       <c r="C25" s="103"/>
       <c r="D25" s="70" t="s">
@@ -2382,13 +2329,13 @@
       <c r="AE25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AF25" s="154"/>
-      <c r="AG25" s="154"/>
+      <c r="AF25" s="138"/>
+      <c r="AG25" s="138"/>
       <c r="AH25" s="85"/>
       <c r="AI25" s="2"/>
     </row>
     <row r="26" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="159"/>
+      <c r="A26" s="168"/>
       <c r="B26" s="45"/>
       <c r="C26" s="46"/>
       <c r="D26" s="71"/>
@@ -2425,781 +2372,781 @@
       <c r="AI26" s="2"/>
     </row>
     <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="159"/>
-      <c r="B27" s="142" t="s">
+      <c r="A27" s="168"/>
+      <c r="B27" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="143"/>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="143"/>
-      <c r="Z27" s="143"/>
-      <c r="AA27" s="143"/>
-      <c r="AB27" s="143"/>
-      <c r="AC27" s="143"/>
-      <c r="AD27" s="143"/>
-      <c r="AE27" s="143"/>
-      <c r="AF27" s="143"/>
-      <c r="AG27" s="143"/>
-      <c r="AH27" s="144"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="127"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="127"/>
+      <c r="AH27" s="128"/>
       <c r="AI27" s="2"/>
     </row>
     <row r="28" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
-      <c r="B28" s="146" t="s">
+      <c r="A28" s="168"/>
+      <c r="B28" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
       <c r="F28" s="147"/>
-      <c r="G28" s="146" t="s">
+      <c r="G28" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="129"/>
-      <c r="U28" s="129"/>
-      <c r="V28" s="129"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="129"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="129"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="129"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="146"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="146"/>
+      <c r="Z28" s="146"/>
+      <c r="AA28" s="146"/>
+      <c r="AB28" s="146"/>
+      <c r="AC28" s="146"/>
+      <c r="AD28" s="146"/>
+      <c r="AE28" s="146"/>
       <c r="AF28" s="147"/>
-      <c r="AG28" s="146" t="s">
+      <c r="AG28" s="145" t="s">
         <v>30</v>
       </c>
       <c r="AH28" s="147"/>
       <c r="AI28" s="2"/>
     </row>
     <row r="29" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="159"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="124"/>
-      <c r="AE29" s="124"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="122"/>
+      <c r="A29" s="168"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="154"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="154"/>
+      <c r="W29" s="154"/>
+      <c r="X29" s="154"/>
+      <c r="Y29" s="154"/>
+      <c r="Z29" s="154"/>
+      <c r="AA29" s="154"/>
+      <c r="AB29" s="154"/>
+      <c r="AC29" s="154"/>
+      <c r="AD29" s="154"/>
+      <c r="AE29" s="154"/>
+      <c r="AF29" s="155"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="149"/>
       <c r="AI29" s="2"/>
     </row>
     <row r="30" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="159"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="124"/>
-      <c r="Z30" s="124"/>
-      <c r="AA30" s="124"/>
-      <c r="AB30" s="124"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="124"/>
-      <c r="AE30" s="124"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="122"/>
+      <c r="A30" s="168"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="154"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="154"/>
+      <c r="AB30" s="154"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="154"/>
+      <c r="AE30" s="154"/>
+      <c r="AF30" s="155"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="149"/>
       <c r="AI30" s="2"/>
     </row>
     <row r="31" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="159"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="124"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="124"/>
-      <c r="AA31" s="124"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="124"/>
-      <c r="AE31" s="124"/>
-      <c r="AF31" s="125"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="122"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="154"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="154"/>
+      <c r="X31" s="154"/>
+      <c r="Y31" s="154"/>
+      <c r="Z31" s="154"/>
+      <c r="AA31" s="154"/>
+      <c r="AB31" s="154"/>
+      <c r="AC31" s="154"/>
+      <c r="AD31" s="154"/>
+      <c r="AE31" s="154"/>
+      <c r="AF31" s="155"/>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="149"/>
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="159"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="124"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="124"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="124"/>
-      <c r="AF32" s="125"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="122"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="154"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="154"/>
+      <c r="X32" s="154"/>
+      <c r="Y32" s="154"/>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="154"/>
+      <c r="AB32" s="154"/>
+      <c r="AC32" s="154"/>
+      <c r="AD32" s="154"/>
+      <c r="AE32" s="154"/>
+      <c r="AF32" s="155"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="149"/>
       <c r="AI32" s="2"/>
     </row>
     <row r="33" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="159"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="124"/>
-      <c r="R33" s="124"/>
-      <c r="S33" s="124"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="124"/>
-      <c r="AB33" s="124"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="124"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="122"/>
+      <c r="A33" s="168"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="154"/>
+      <c r="U33" s="154"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="154"/>
+      <c r="X33" s="154"/>
+      <c r="Y33" s="154"/>
+      <c r="Z33" s="154"/>
+      <c r="AA33" s="154"/>
+      <c r="AB33" s="154"/>
+      <c r="AC33" s="154"/>
+      <c r="AD33" s="154"/>
+      <c r="AE33" s="154"/>
+      <c r="AF33" s="155"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="149"/>
       <c r="AI33" s="2"/>
     </row>
     <row r="34" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="159"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="124"/>
-      <c r="O34" s="124"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="124"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="124"/>
-      <c r="V34" s="124"/>
-      <c r="W34" s="124"/>
-      <c r="X34" s="124"/>
-      <c r="Y34" s="124"/>
-      <c r="Z34" s="124"/>
-      <c r="AA34" s="124"/>
-      <c r="AB34" s="124"/>
-      <c r="AC34" s="124"/>
-      <c r="AD34" s="124"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="125"/>
-      <c r="AG34" s="121"/>
-      <c r="AH34" s="122"/>
+      <c r="A34" s="168"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="154"/>
+      <c r="S34" s="154"/>
+      <c r="T34" s="154"/>
+      <c r="U34" s="154"/>
+      <c r="V34" s="154"/>
+      <c r="W34" s="154"/>
+      <c r="X34" s="154"/>
+      <c r="Y34" s="154"/>
+      <c r="Z34" s="154"/>
+      <c r="AA34" s="154"/>
+      <c r="AB34" s="154"/>
+      <c r="AC34" s="154"/>
+      <c r="AD34" s="154"/>
+      <c r="AE34" s="154"/>
+      <c r="AF34" s="155"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="149"/>
       <c r="AI34" s="2"/>
     </row>
     <row r="35" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="159"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="124"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
-      <c r="AA35" s="124"/>
-      <c r="AB35" s="124"/>
-      <c r="AC35" s="124"/>
-      <c r="AD35" s="124"/>
-      <c r="AE35" s="124"/>
-      <c r="AF35" s="125"/>
-      <c r="AG35" s="121"/>
-      <c r="AH35" s="122"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="154"/>
+      <c r="P35" s="154"/>
+      <c r="Q35" s="154"/>
+      <c r="R35" s="154"/>
+      <c r="S35" s="154"/>
+      <c r="T35" s="154"/>
+      <c r="U35" s="154"/>
+      <c r="V35" s="154"/>
+      <c r="W35" s="154"/>
+      <c r="X35" s="154"/>
+      <c r="Y35" s="154"/>
+      <c r="Z35" s="154"/>
+      <c r="AA35" s="154"/>
+      <c r="AB35" s="154"/>
+      <c r="AC35" s="154"/>
+      <c r="AD35" s="154"/>
+      <c r="AE35" s="154"/>
+      <c r="AF35" s="155"/>
+      <c r="AG35" s="148"/>
+      <c r="AH35" s="149"/>
       <c r="AI35" s="60"/>
     </row>
     <row r="36" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="159"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="124"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="124"/>
-      <c r="T36" s="124"/>
-      <c r="U36" s="124"/>
-      <c r="V36" s="124"/>
-      <c r="W36" s="124"/>
-      <c r="X36" s="124"/>
-      <c r="Y36" s="124"/>
-      <c r="Z36" s="124"/>
-      <c r="AA36" s="124"/>
-      <c r="AB36" s="124"/>
-      <c r="AC36" s="124"/>
-      <c r="AD36" s="124"/>
-      <c r="AE36" s="124"/>
-      <c r="AF36" s="125"/>
-      <c r="AG36" s="121"/>
-      <c r="AH36" s="122"/>
+      <c r="A36" s="168"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="154"/>
+      <c r="S36" s="154"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="154"/>
+      <c r="V36" s="154"/>
+      <c r="W36" s="154"/>
+      <c r="X36" s="154"/>
+      <c r="Y36" s="154"/>
+      <c r="Z36" s="154"/>
+      <c r="AA36" s="154"/>
+      <c r="AB36" s="154"/>
+      <c r="AC36" s="154"/>
+      <c r="AD36" s="154"/>
+      <c r="AE36" s="154"/>
+      <c r="AF36" s="155"/>
+      <c r="AG36" s="148"/>
+      <c r="AH36" s="149"/>
       <c r="AI36" s="60"/>
     </row>
     <row r="37" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="159"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="124"/>
-      <c r="S37" s="124"/>
-      <c r="T37" s="124"/>
-      <c r="U37" s="124"/>
-      <c r="V37" s="124"/>
-      <c r="W37" s="124"/>
-      <c r="X37" s="124"/>
-      <c r="Y37" s="124"/>
-      <c r="Z37" s="124"/>
-      <c r="AA37" s="124"/>
-      <c r="AB37" s="124"/>
-      <c r="AC37" s="124"/>
-      <c r="AD37" s="124"/>
-      <c r="AE37" s="124"/>
-      <c r="AF37" s="125"/>
-      <c r="AG37" s="121"/>
-      <c r="AH37" s="122"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="154"/>
+      <c r="U37" s="154"/>
+      <c r="V37" s="154"/>
+      <c r="W37" s="154"/>
+      <c r="X37" s="154"/>
+      <c r="Y37" s="154"/>
+      <c r="Z37" s="154"/>
+      <c r="AA37" s="154"/>
+      <c r="AB37" s="154"/>
+      <c r="AC37" s="154"/>
+      <c r="AD37" s="154"/>
+      <c r="AE37" s="154"/>
+      <c r="AF37" s="155"/>
+      <c r="AG37" s="148"/>
+      <c r="AH37" s="149"/>
       <c r="AI37" s="60"/>
     </row>
     <row r="38" spans="1:35" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="159"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="124"/>
-      <c r="N38" s="124"/>
-      <c r="O38" s="124"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="124"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="124"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="124"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="125"/>
-      <c r="AG38" s="121"/>
-      <c r="AH38" s="122"/>
+      <c r="A38" s="168"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="154"/>
+      <c r="P38" s="154"/>
+      <c r="Q38" s="154"/>
+      <c r="R38" s="154"/>
+      <c r="S38" s="154"/>
+      <c r="T38" s="154"/>
+      <c r="U38" s="154"/>
+      <c r="V38" s="154"/>
+      <c r="W38" s="154"/>
+      <c r="X38" s="154"/>
+      <c r="Y38" s="154"/>
+      <c r="Z38" s="154"/>
+      <c r="AA38" s="154"/>
+      <c r="AB38" s="154"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="154"/>
+      <c r="AE38" s="154"/>
+      <c r="AF38" s="155"/>
+      <c r="AG38" s="148"/>
+      <c r="AH38" s="149"/>
       <c r="AI38" s="60"/>
     </row>
     <row r="39" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="159"/>
-      <c r="B39" s="165" t="s">
+      <c r="A39" s="168"/>
+      <c r="B39" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
-      <c r="K39" s="166"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="166"/>
-      <c r="N39" s="166"/>
-      <c r="O39" s="166"/>
-      <c r="P39" s="166"/>
-      <c r="Q39" s="166"/>
-      <c r="R39" s="166"/>
-      <c r="S39" s="166"/>
-      <c r="T39" s="166"/>
-      <c r="U39" s="166"/>
-      <c r="V39" s="166"/>
-      <c r="W39" s="166"/>
-      <c r="X39" s="166"/>
-      <c r="Y39" s="166"/>
-      <c r="Z39" s="166"/>
-      <c r="AA39" s="166"/>
-      <c r="AB39" s="166"/>
-      <c r="AC39" s="166"/>
-      <c r="AD39" s="166"/>
-      <c r="AE39" s="166"/>
-      <c r="AF39" s="166"/>
-      <c r="AG39" s="166"/>
-      <c r="AH39" s="167"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="124"/>
+      <c r="S39" s="124"/>
+      <c r="T39" s="124"/>
+      <c r="U39" s="124"/>
+      <c r="V39" s="124"/>
+      <c r="W39" s="124"/>
+      <c r="X39" s="124"/>
+      <c r="Y39" s="124"/>
+      <c r="Z39" s="124"/>
+      <c r="AA39" s="124"/>
+      <c r="AB39" s="124"/>
+      <c r="AC39" s="124"/>
+      <c r="AD39" s="124"/>
+      <c r="AE39" s="124"/>
+      <c r="AF39" s="124"/>
+      <c r="AG39" s="124"/>
+      <c r="AH39" s="125"/>
       <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="159"/>
-      <c r="B40" s="146" t="s">
+      <c r="A40" s="168"/>
+      <c r="B40" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
       <c r="F40" s="147"/>
-      <c r="G40" s="146" t="s">
+      <c r="G40" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="129"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="129"/>
-      <c r="O40" s="129"/>
-      <c r="P40" s="129"/>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="129"/>
-      <c r="T40" s="129"/>
-      <c r="U40" s="129"/>
-      <c r="V40" s="129"/>
-      <c r="W40" s="129"/>
-      <c r="X40" s="129"/>
-      <c r="Y40" s="129"/>
-      <c r="Z40" s="129"/>
-      <c r="AA40" s="129"/>
-      <c r="AB40" s="129"/>
-      <c r="AC40" s="129"/>
-      <c r="AD40" s="129"/>
-      <c r="AE40" s="129"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="146"/>
+      <c r="N40" s="146"/>
+      <c r="O40" s="146"/>
+      <c r="P40" s="146"/>
+      <c r="Q40" s="146"/>
+      <c r="R40" s="146"/>
+      <c r="S40" s="146"/>
+      <c r="T40" s="146"/>
+      <c r="U40" s="146"/>
+      <c r="V40" s="146"/>
+      <c r="W40" s="146"/>
+      <c r="X40" s="146"/>
+      <c r="Y40" s="146"/>
+      <c r="Z40" s="146"/>
+      <c r="AA40" s="146"/>
+      <c r="AB40" s="146"/>
+      <c r="AC40" s="146"/>
+      <c r="AD40" s="146"/>
+      <c r="AE40" s="146"/>
       <c r="AF40" s="147"/>
-      <c r="AG40" s="146" t="s">
+      <c r="AG40" s="145" t="s">
         <v>30</v>
       </c>
       <c r="AH40" s="147"/>
       <c r="AI40" s="2"/>
     </row>
     <row r="41" spans="1:35" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="159"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="124"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="124"/>
-      <c r="V41" s="124"/>
-      <c r="W41" s="124"/>
-      <c r="X41" s="124"/>
-      <c r="Y41" s="124"/>
-      <c r="Z41" s="124"/>
-      <c r="AA41" s="124"/>
-      <c r="AB41" s="124"/>
-      <c r="AC41" s="124"/>
-      <c r="AD41" s="124"/>
-      <c r="AE41" s="124"/>
-      <c r="AF41" s="125"/>
-      <c r="AG41" s="121"/>
-      <c r="AH41" s="122"/>
+      <c r="A41" s="168"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="154"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154"/>
+      <c r="S41" s="154"/>
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="154"/>
+      <c r="W41" s="154"/>
+      <c r="X41" s="154"/>
+      <c r="Y41" s="154"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="154"/>
+      <c r="AB41" s="154"/>
+      <c r="AC41" s="154"/>
+      <c r="AD41" s="154"/>
+      <c r="AE41" s="154"/>
+      <c r="AF41" s="155"/>
+      <c r="AG41" s="148"/>
+      <c r="AH41" s="149"/>
       <c r="AI41" s="60"/>
     </row>
     <row r="42" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="159"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="124"/>
-      <c r="S42" s="124"/>
-      <c r="T42" s="124"/>
-      <c r="U42" s="124"/>
-      <c r="V42" s="124"/>
-      <c r="W42" s="124"/>
-      <c r="X42" s="124"/>
-      <c r="Y42" s="124"/>
-      <c r="Z42" s="124"/>
-      <c r="AA42" s="124"/>
-      <c r="AB42" s="124"/>
-      <c r="AC42" s="124"/>
-      <c r="AD42" s="124"/>
-      <c r="AE42" s="124"/>
-      <c r="AF42" s="125"/>
-      <c r="AG42" s="121"/>
-      <c r="AH42" s="122"/>
+      <c r="A42" s="168"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="154"/>
+      <c r="Q42" s="154"/>
+      <c r="R42" s="154"/>
+      <c r="S42" s="154"/>
+      <c r="T42" s="154"/>
+      <c r="U42" s="154"/>
+      <c r="V42" s="154"/>
+      <c r="W42" s="154"/>
+      <c r="X42" s="154"/>
+      <c r="Y42" s="154"/>
+      <c r="Z42" s="154"/>
+      <c r="AA42" s="154"/>
+      <c r="AB42" s="154"/>
+      <c r="AC42" s="154"/>
+      <c r="AD42" s="154"/>
+      <c r="AE42" s="154"/>
+      <c r="AF42" s="155"/>
+      <c r="AG42" s="148"/>
+      <c r="AH42" s="149"/>
       <c r="AI42" s="60"/>
     </row>
     <row r="43" spans="1:35" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="159"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="124"/>
-      <c r="R43" s="124"/>
-      <c r="S43" s="124"/>
-      <c r="T43" s="124"/>
-      <c r="U43" s="124"/>
-      <c r="V43" s="124"/>
-      <c r="W43" s="124"/>
-      <c r="X43" s="124"/>
-      <c r="Y43" s="124"/>
-      <c r="Z43" s="124"/>
-      <c r="AA43" s="124"/>
-      <c r="AB43" s="124"/>
-      <c r="AC43" s="124"/>
-      <c r="AD43" s="124"/>
-      <c r="AE43" s="124"/>
-      <c r="AF43" s="125"/>
-      <c r="AG43" s="121"/>
-      <c r="AH43" s="122"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="154"/>
+      <c r="W43" s="154"/>
+      <c r="X43" s="154"/>
+      <c r="Y43" s="154"/>
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="154"/>
+      <c r="AB43" s="154"/>
+      <c r="AC43" s="154"/>
+      <c r="AD43" s="154"/>
+      <c r="AE43" s="154"/>
+      <c r="AF43" s="155"/>
+      <c r="AG43" s="148"/>
+      <c r="AH43" s="149"/>
       <c r="AI43" s="60"/>
     </row>
     <row r="44" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="159"/>
-      <c r="B44" s="165" t="s">
+      <c r="A44" s="168"/>
+      <c r="B44" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="166"/>
-      <c r="K44" s="166"/>
-      <c r="L44" s="166"/>
-      <c r="M44" s="166"/>
-      <c r="N44" s="166"/>
-      <c r="O44" s="166"/>
-      <c r="P44" s="166"/>
-      <c r="Q44" s="166"/>
-      <c r="R44" s="166"/>
-      <c r="S44" s="166"/>
-      <c r="T44" s="166"/>
-      <c r="U44" s="166"/>
-      <c r="V44" s="166"/>
-      <c r="W44" s="166"/>
-      <c r="X44" s="166"/>
-      <c r="Y44" s="166"/>
-      <c r="Z44" s="166"/>
-      <c r="AA44" s="166"/>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="166"/>
-      <c r="AD44" s="166"/>
-      <c r="AE44" s="166"/>
-      <c r="AF44" s="166"/>
-      <c r="AG44" s="166"/>
-      <c r="AH44" s="167"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="124"/>
+      <c r="P44" s="124"/>
+      <c r="Q44" s="124"/>
+      <c r="R44" s="124"/>
+      <c r="S44" s="124"/>
+      <c r="T44" s="124"/>
+      <c r="U44" s="124"/>
+      <c r="V44" s="124"/>
+      <c r="W44" s="124"/>
+      <c r="X44" s="124"/>
+      <c r="Y44" s="124"/>
+      <c r="Z44" s="124"/>
+      <c r="AA44" s="124"/>
+      <c r="AB44" s="124"/>
+      <c r="AC44" s="124"/>
+      <c r="AD44" s="124"/>
+      <c r="AE44" s="124"/>
+      <c r="AF44" s="124"/>
+      <c r="AG44" s="124"/>
+      <c r="AH44" s="125"/>
       <c r="AI44" s="60"/>
     </row>
     <row r="45" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="159"/>
-      <c r="B45" s="146" t="s">
+      <c r="A45" s="168"/>
+      <c r="B45" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
       <c r="F45" s="147"/>
-      <c r="G45" s="146" t="s">
+      <c r="G45" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="129"/>
-      <c r="P45" s="129"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="129"/>
-      <c r="T45" s="129"/>
-      <c r="U45" s="129"/>
-      <c r="V45" s="129"/>
-      <c r="W45" s="129"/>
-      <c r="X45" s="129"/>
-      <c r="Y45" s="129"/>
-      <c r="Z45" s="129"/>
-      <c r="AA45" s="129"/>
-      <c r="AB45" s="129"/>
-      <c r="AC45" s="129"/>
-      <c r="AD45" s="129"/>
-      <c r="AE45" s="129"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="146"/>
+      <c r="O45" s="146"/>
+      <c r="P45" s="146"/>
+      <c r="Q45" s="146"/>
+      <c r="R45" s="146"/>
+      <c r="S45" s="146"/>
+      <c r="T45" s="146"/>
+      <c r="U45" s="146"/>
+      <c r="V45" s="146"/>
+      <c r="W45" s="146"/>
+      <c r="X45" s="146"/>
+      <c r="Y45" s="146"/>
+      <c r="Z45" s="146"/>
+      <c r="AA45" s="146"/>
+      <c r="AB45" s="146"/>
+      <c r="AC45" s="146"/>
+      <c r="AD45" s="146"/>
+      <c r="AE45" s="146"/>
       <c r="AF45" s="147"/>
-      <c r="AG45" s="146" t="s">
+      <c r="AG45" s="145" t="s">
         <v>30</v>
       </c>
       <c r="AH45" s="147"/>
       <c r="AI45" s="60"/>
     </row>
     <row r="46" spans="1:35" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="159"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="124"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="124"/>
-      <c r="Y46" s="124"/>
-      <c r="Z46" s="124"/>
-      <c r="AA46" s="124"/>
-      <c r="AB46" s="124"/>
-      <c r="AC46" s="124"/>
-      <c r="AD46" s="124"/>
-      <c r="AE46" s="124"/>
-      <c r="AF46" s="125"/>
-      <c r="AG46" s="121"/>
-      <c r="AH46" s="122"/>
+      <c r="A46" s="168"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="154"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="154"/>
+      <c r="P46" s="154"/>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154"/>
+      <c r="S46" s="154"/>
+      <c r="T46" s="154"/>
+      <c r="U46" s="154"/>
+      <c r="V46" s="154"/>
+      <c r="W46" s="154"/>
+      <c r="X46" s="154"/>
+      <c r="Y46" s="154"/>
+      <c r="Z46" s="154"/>
+      <c r="AA46" s="154"/>
+      <c r="AB46" s="154"/>
+      <c r="AC46" s="154"/>
+      <c r="AD46" s="154"/>
+      <c r="AE46" s="154"/>
+      <c r="AF46" s="155"/>
+      <c r="AG46" s="148"/>
+      <c r="AH46" s="149"/>
       <c r="AI46" s="60"/>
     </row>
     <row r="47" spans="1:35" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="159"/>
-      <c r="B47" s="165" t="s">
+      <c r="A47" s="168"/>
+      <c r="B47" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="167"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="125"/>
       <c r="J47" s="49" t="s">
         <v>35</v>
       </c>
@@ -3211,28 +3158,28 @@
       <c r="P47" s="50"/>
       <c r="Q47" s="50"/>
       <c r="R47" s="50"/>
-      <c r="S47" s="165" t="s">
+      <c r="S47" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="T47" s="166"/>
-      <c r="U47" s="166"/>
-      <c r="V47" s="166"/>
-      <c r="W47" s="166"/>
-      <c r="X47" s="166"/>
-      <c r="Y47" s="166"/>
-      <c r="Z47" s="166"/>
-      <c r="AA47" s="166"/>
-      <c r="AB47" s="166"/>
-      <c r="AC47" s="166"/>
-      <c r="AD47" s="166"/>
-      <c r="AE47" s="166"/>
-      <c r="AF47" s="166"/>
-      <c r="AG47" s="166"/>
-      <c r="AH47" s="167"/>
+      <c r="T47" s="124"/>
+      <c r="U47" s="124"/>
+      <c r="V47" s="124"/>
+      <c r="W47" s="124"/>
+      <c r="X47" s="124"/>
+      <c r="Y47" s="124"/>
+      <c r="Z47" s="124"/>
+      <c r="AA47" s="124"/>
+      <c r="AB47" s="124"/>
+      <c r="AC47" s="124"/>
+      <c r="AD47" s="124"/>
+      <c r="AE47" s="124"/>
+      <c r="AF47" s="124"/>
+      <c r="AG47" s="124"/>
+      <c r="AH47" s="125"/>
       <c r="AI47" s="72"/>
     </row>
     <row r="48" spans="1:35" s="31" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="159"/>
+      <c r="A48" s="168"/>
       <c r="B48" s="73"/>
       <c r="C48" s="74"/>
       <c r="D48" s="74"/>
@@ -3269,7 +3216,7 @@
       <c r="AI48" s="72"/>
     </row>
     <row r="49" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="159"/>
+      <c r="A49" s="168"/>
       <c r="B49" s="5"/>
       <c r="C49" s="101"/>
       <c r="D49" s="89" t="s">
@@ -3279,8 +3226,8 @@
       <c r="F49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
       <c r="I49" s="6"/>
       <c r="J49" s="12"/>
       <c r="K49" s="101"/>
@@ -3291,26 +3238,26 @@
       <c r="N49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="154"/>
-      <c r="P49" s="154"/>
+      <c r="O49" s="138"/>
+      <c r="P49" s="138"/>
       <c r="Q49" s="29"/>
       <c r="R49" s="29"/>
-      <c r="S49" s="199"/>
-      <c r="T49" s="200"/>
-      <c r="U49" s="200"/>
-      <c r="V49" s="200"/>
-      <c r="W49" s="200"/>
-      <c r="X49" s="200"/>
-      <c r="Y49" s="200"/>
-      <c r="Z49" s="200"/>
-      <c r="AA49" s="200"/>
-      <c r="AB49" s="200"/>
-      <c r="AC49" s="200"/>
-      <c r="AD49" s="200"/>
-      <c r="AE49" s="200"/>
-      <c r="AF49" s="200"/>
-      <c r="AG49" s="200"/>
-      <c r="AH49" s="201"/>
+      <c r="S49" s="139"/>
+      <c r="T49" s="140"/>
+      <c r="U49" s="140"/>
+      <c r="V49" s="140"/>
+      <c r="W49" s="140"/>
+      <c r="X49" s="140"/>
+      <c r="Y49" s="140"/>
+      <c r="Z49" s="140"/>
+      <c r="AA49" s="140"/>
+      <c r="AB49" s="140"/>
+      <c r="AC49" s="140"/>
+      <c r="AD49" s="140"/>
+      <c r="AE49" s="140"/>
+      <c r="AF49" s="140"/>
+      <c r="AG49" s="140"/>
+      <c r="AH49" s="141"/>
       <c r="AI49" s="2"/>
     </row>
     <row r="50" spans="1:40" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -3332,60 +3279,60 @@
       <c r="P50" s="98"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
-      <c r="S50" s="155"/>
-      <c r="T50" s="156"/>
-      <c r="U50" s="156"/>
-      <c r="V50" s="156"/>
-      <c r="W50" s="156"/>
-      <c r="X50" s="156"/>
-      <c r="Y50" s="156"/>
-      <c r="Z50" s="156"/>
-      <c r="AA50" s="156"/>
-      <c r="AB50" s="156"/>
-      <c r="AC50" s="156"/>
-      <c r="AD50" s="156"/>
-      <c r="AE50" s="156"/>
-      <c r="AF50" s="156"/>
-      <c r="AG50" s="156"/>
-      <c r="AH50" s="157"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="143"/>
+      <c r="U50" s="143"/>
+      <c r="V50" s="143"/>
+      <c r="W50" s="143"/>
+      <c r="X50" s="143"/>
+      <c r="Y50" s="143"/>
+      <c r="Z50" s="143"/>
+      <c r="AA50" s="143"/>
+      <c r="AB50" s="143"/>
+      <c r="AC50" s="143"/>
+      <c r="AD50" s="143"/>
+      <c r="AE50" s="143"/>
+      <c r="AF50" s="143"/>
+      <c r="AG50" s="143"/>
+      <c r="AH50" s="144"/>
       <c r="AI50" s="2"/>
     </row>
     <row r="51" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="142" t="s">
+      <c r="B51" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
-      <c r="N51" s="143"/>
-      <c r="O51" s="143"/>
-      <c r="P51" s="143"/>
-      <c r="Q51" s="143"/>
-      <c r="R51" s="143"/>
-      <c r="S51" s="143"/>
-      <c r="T51" s="143"/>
-      <c r="U51" s="143"/>
-      <c r="V51" s="143"/>
-      <c r="W51" s="143"/>
-      <c r="X51" s="143"/>
-      <c r="Y51" s="143"/>
-      <c r="Z51" s="143"/>
-      <c r="AA51" s="143"/>
-      <c r="AB51" s="143"/>
-      <c r="AC51" s="143"/>
-      <c r="AD51" s="143"/>
-      <c r="AE51" s="143"/>
-      <c r="AF51" s="143"/>
-      <c r="AG51" s="143"/>
-      <c r="AH51" s="144"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
+      <c r="N51" s="127"/>
+      <c r="O51" s="127"/>
+      <c r="P51" s="127"/>
+      <c r="Q51" s="127"/>
+      <c r="R51" s="127"/>
+      <c r="S51" s="127"/>
+      <c r="T51" s="127"/>
+      <c r="U51" s="127"/>
+      <c r="V51" s="127"/>
+      <c r="W51" s="127"/>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="127"/>
+      <c r="Z51" s="127"/>
+      <c r="AA51" s="127"/>
+      <c r="AB51" s="127"/>
+      <c r="AC51" s="127"/>
+      <c r="AD51" s="127"/>
+      <c r="AE51" s="127"/>
+      <c r="AF51" s="127"/>
+      <c r="AG51" s="127"/>
+      <c r="AH51" s="128"/>
       <c r="AI51" s="2"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.2">
@@ -3427,192 +3374,192 @@
       <c r="AI52" s="2"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B53" s="190"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
-      <c r="L53" s="191"/>
-      <c r="M53" s="191"/>
-      <c r="N53" s="191"/>
-      <c r="O53" s="191"/>
-      <c r="P53" s="191"/>
-      <c r="Q53" s="191"/>
-      <c r="R53" s="191"/>
-      <c r="S53" s="191"/>
-      <c r="T53" s="191"/>
-      <c r="U53" s="191"/>
-      <c r="V53" s="191"/>
-      <c r="W53" s="191"/>
-      <c r="X53" s="191"/>
-      <c r="Y53" s="191"/>
-      <c r="Z53" s="191"/>
-      <c r="AA53" s="191"/>
-      <c r="AB53" s="191"/>
-      <c r="AC53" s="191"/>
-      <c r="AD53" s="191"/>
-      <c r="AE53" s="191"/>
-      <c r="AF53" s="191"/>
-      <c r="AG53" s="191"/>
-      <c r="AH53" s="192"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
+      <c r="U53" s="130"/>
+      <c r="V53" s="130"/>
+      <c r="W53" s="130"/>
+      <c r="X53" s="130"/>
+      <c r="Y53" s="130"/>
+      <c r="Z53" s="130"/>
+      <c r="AA53" s="130"/>
+      <c r="AB53" s="130"/>
+      <c r="AC53" s="130"/>
+      <c r="AD53" s="130"/>
+      <c r="AE53" s="130"/>
+      <c r="AF53" s="130"/>
+      <c r="AG53" s="130"/>
+      <c r="AH53" s="131"/>
       <c r="AI53" s="2"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B54" s="190"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
-      <c r="H54" s="191"/>
-      <c r="I54" s="191"/>
-      <c r="J54" s="191"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="191"/>
-      <c r="M54" s="191"/>
-      <c r="N54" s="191"/>
-      <c r="O54" s="191"/>
-      <c r="P54" s="191"/>
-      <c r="Q54" s="191"/>
-      <c r="R54" s="191"/>
-      <c r="S54" s="191"/>
-      <c r="T54" s="191"/>
-      <c r="U54" s="191"/>
-      <c r="V54" s="191"/>
-      <c r="W54" s="191"/>
-      <c r="X54" s="191"/>
-      <c r="Y54" s="191"/>
-      <c r="Z54" s="191"/>
-      <c r="AA54" s="191"/>
-      <c r="AB54" s="191"/>
-      <c r="AC54" s="191"/>
-      <c r="AD54" s="191"/>
-      <c r="AE54" s="191"/>
-      <c r="AF54" s="191"/>
-      <c r="AG54" s="191"/>
-      <c r="AH54" s="192"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="130"/>
+      <c r="T54" s="130"/>
+      <c r="U54" s="130"/>
+      <c r="V54" s="130"/>
+      <c r="W54" s="130"/>
+      <c r="X54" s="130"/>
+      <c r="Y54" s="130"/>
+      <c r="Z54" s="130"/>
+      <c r="AA54" s="130"/>
+      <c r="AB54" s="130"/>
+      <c r="AC54" s="130"/>
+      <c r="AD54" s="130"/>
+      <c r="AE54" s="130"/>
+      <c r="AF54" s="130"/>
+      <c r="AG54" s="130"/>
+      <c r="AH54" s="131"/>
       <c r="AI54" s="2"/>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A55" s="158" t="s">
+      <c r="A55" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="190"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="191"/>
-      <c r="E55" s="191"/>
-      <c r="F55" s="191"/>
-      <c r="G55" s="191"/>
-      <c r="H55" s="191"/>
-      <c r="I55" s="191"/>
-      <c r="J55" s="191"/>
-      <c r="K55" s="191"/>
-      <c r="L55" s="191"/>
-      <c r="M55" s="191"/>
-      <c r="N55" s="191"/>
-      <c r="O55" s="191"/>
-      <c r="P55" s="191"/>
-      <c r="Q55" s="191"/>
-      <c r="R55" s="191"/>
-      <c r="S55" s="191"/>
-      <c r="T55" s="191"/>
-      <c r="U55" s="191"/>
-      <c r="V55" s="191"/>
-      <c r="W55" s="191"/>
-      <c r="X55" s="191"/>
-      <c r="Y55" s="191"/>
-      <c r="Z55" s="191"/>
-      <c r="AA55" s="191"/>
-      <c r="AB55" s="191"/>
-      <c r="AC55" s="191"/>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="192"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="130"/>
+      <c r="P55" s="130"/>
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="130"/>
+      <c r="T55" s="130"/>
+      <c r="U55" s="130"/>
+      <c r="V55" s="130"/>
+      <c r="W55" s="130"/>
+      <c r="X55" s="130"/>
+      <c r="Y55" s="130"/>
+      <c r="Z55" s="130"/>
+      <c r="AA55" s="130"/>
+      <c r="AB55" s="130"/>
+      <c r="AC55" s="130"/>
+      <c r="AD55" s="130"/>
+      <c r="AE55" s="130"/>
+      <c r="AF55" s="130"/>
+      <c r="AG55" s="130"/>
+      <c r="AH55" s="131"/>
       <c r="AI55" s="2"/>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A56" s="158"/>
-      <c r="B56" s="190"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="191"/>
-      <c r="E56" s="191"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="191"/>
-      <c r="J56" s="191"/>
-      <c r="K56" s="191"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="191"/>
-      <c r="N56" s="191"/>
-      <c r="O56" s="191"/>
-      <c r="P56" s="191"/>
-      <c r="Q56" s="191"/>
-      <c r="R56" s="191"/>
-      <c r="S56" s="191"/>
-      <c r="T56" s="191"/>
-      <c r="U56" s="191"/>
-      <c r="V56" s="191"/>
-      <c r="W56" s="191"/>
-      <c r="X56" s="191"/>
-      <c r="Y56" s="191"/>
-      <c r="Z56" s="191"/>
-      <c r="AA56" s="191"/>
-      <c r="AB56" s="191"/>
-      <c r="AC56" s="191"/>
-      <c r="AD56" s="191"/>
-      <c r="AE56" s="191"/>
-      <c r="AF56" s="191"/>
-      <c r="AG56" s="191"/>
-      <c r="AH56" s="192"/>
+      <c r="A56" s="167"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
+      <c r="Q56" s="130"/>
+      <c r="R56" s="130"/>
+      <c r="S56" s="130"/>
+      <c r="T56" s="130"/>
+      <c r="U56" s="130"/>
+      <c r="V56" s="130"/>
+      <c r="W56" s="130"/>
+      <c r="X56" s="130"/>
+      <c r="Y56" s="130"/>
+      <c r="Z56" s="130"/>
+      <c r="AA56" s="130"/>
+      <c r="AB56" s="130"/>
+      <c r="AC56" s="130"/>
+      <c r="AD56" s="130"/>
+      <c r="AE56" s="130"/>
+      <c r="AF56" s="130"/>
+      <c r="AG56" s="130"/>
+      <c r="AH56" s="131"/>
       <c r="AI56" s="2"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A57" s="158"/>
-      <c r="B57" s="190"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="191"/>
-      <c r="F57" s="191"/>
-      <c r="G57" s="191"/>
-      <c r="H57" s="191"/>
-      <c r="I57" s="191"/>
-      <c r="J57" s="191"/>
-      <c r="K57" s="191"/>
-      <c r="L57" s="191"/>
-      <c r="M57" s="191"/>
-      <c r="N57" s="191"/>
-      <c r="O57" s="191"/>
-      <c r="P57" s="191"/>
-      <c r="Q57" s="191"/>
-      <c r="R57" s="191"/>
-      <c r="S57" s="191"/>
-      <c r="T57" s="191"/>
-      <c r="U57" s="191"/>
-      <c r="V57" s="191"/>
-      <c r="W57" s="191"/>
-      <c r="X57" s="191"/>
-      <c r="Y57" s="191"/>
-      <c r="Z57" s="191"/>
-      <c r="AA57" s="191"/>
-      <c r="AB57" s="191"/>
-      <c r="AC57" s="191"/>
-      <c r="AD57" s="191"/>
-      <c r="AE57" s="191"/>
-      <c r="AF57" s="191"/>
-      <c r="AG57" s="191"/>
-      <c r="AH57" s="192"/>
+      <c r="A57" s="167"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="130"/>
+      <c r="Q57" s="130"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="130"/>
+      <c r="T57" s="130"/>
+      <c r="U57" s="130"/>
+      <c r="V57" s="130"/>
+      <c r="W57" s="130"/>
+      <c r="X57" s="130"/>
+      <c r="Y57" s="130"/>
+      <c r="Z57" s="130"/>
+      <c r="AA57" s="130"/>
+      <c r="AB57" s="130"/>
+      <c r="AC57" s="130"/>
+      <c r="AD57" s="130"/>
+      <c r="AE57" s="130"/>
+      <c r="AF57" s="130"/>
+      <c r="AG57" s="130"/>
+      <c r="AH57" s="131"/>
       <c r="AI57" s="2"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A58" s="158"/>
+      <c r="A58" s="167"/>
       <c r="B58" s="64" t="s">
         <v>46</v>
       </c>
@@ -3651,83 +3598,83 @@
       <c r="AI58" s="2"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A59" s="158"/>
-      <c r="B59" s="196"/>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="197"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="197"/>
-      <c r="N59" s="197"/>
-      <c r="O59" s="197"/>
-      <c r="P59" s="197"/>
-      <c r="Q59" s="197"/>
-      <c r="R59" s="197"/>
-      <c r="S59" s="197"/>
-      <c r="T59" s="197"/>
-      <c r="U59" s="197"/>
-      <c r="V59" s="197"/>
-      <c r="W59" s="197"/>
-      <c r="X59" s="197"/>
-      <c r="Y59" s="197"/>
-      <c r="Z59" s="197"/>
-      <c r="AA59" s="197"/>
-      <c r="AB59" s="197"/>
-      <c r="AC59" s="197"/>
-      <c r="AD59" s="197"/>
-      <c r="AE59" s="197"/>
-      <c r="AF59" s="197"/>
-      <c r="AG59" s="197"/>
-      <c r="AH59" s="198"/>
+      <c r="A59" s="167"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="136"/>
+      <c r="R59" s="136"/>
+      <c r="S59" s="136"/>
+      <c r="T59" s="136"/>
+      <c r="U59" s="136"/>
+      <c r="V59" s="136"/>
+      <c r="W59" s="136"/>
+      <c r="X59" s="136"/>
+      <c r="Y59" s="136"/>
+      <c r="Z59" s="136"/>
+      <c r="AA59" s="136"/>
+      <c r="AB59" s="136"/>
+      <c r="AC59" s="136"/>
+      <c r="AD59" s="136"/>
+      <c r="AE59" s="136"/>
+      <c r="AF59" s="136"/>
+      <c r="AG59" s="136"/>
+      <c r="AH59" s="137"/>
       <c r="AI59" s="2"/>
     </row>
     <row r="60" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="158"/>
-      <c r="B60" s="193" t="s">
+      <c r="A60" s="167"/>
+      <c r="B60" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="194"/>
-      <c r="D60" s="194"/>
-      <c r="E60" s="194"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="194"/>
-      <c r="H60" s="194"/>
-      <c r="I60" s="194"/>
-      <c r="J60" s="194"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="194"/>
-      <c r="M60" s="194"/>
-      <c r="N60" s="194"/>
-      <c r="O60" s="194"/>
-      <c r="P60" s="194"/>
-      <c r="Q60" s="194"/>
-      <c r="R60" s="194"/>
-      <c r="S60" s="194"/>
-      <c r="T60" s="194"/>
-      <c r="U60" s="194"/>
-      <c r="V60" s="194"/>
-      <c r="W60" s="194"/>
-      <c r="X60" s="194"/>
-      <c r="Y60" s="194"/>
-      <c r="Z60" s="194"/>
-      <c r="AA60" s="194"/>
-      <c r="AB60" s="194"/>
-      <c r="AC60" s="194"/>
-      <c r="AD60" s="194"/>
-      <c r="AE60" s="194"/>
-      <c r="AF60" s="194"/>
-      <c r="AG60" s="194"/>
-      <c r="AH60" s="195"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="133"/>
+      <c r="Q60" s="133"/>
+      <c r="R60" s="133"/>
+      <c r="S60" s="133"/>
+      <c r="T60" s="133"/>
+      <c r="U60" s="133"/>
+      <c r="V60" s="133"/>
+      <c r="W60" s="133"/>
+      <c r="X60" s="133"/>
+      <c r="Y60" s="133"/>
+      <c r="Z60" s="133"/>
+      <c r="AA60" s="133"/>
+      <c r="AB60" s="133"/>
+      <c r="AC60" s="133"/>
+      <c r="AD60" s="133"/>
+      <c r="AE60" s="133"/>
+      <c r="AF60" s="133"/>
+      <c r="AG60" s="133"/>
+      <c r="AH60" s="134"/>
       <c r="AI60" s="2"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A61" s="158"/>
+      <c r="A61" s="167"/>
       <c r="B61" s="78" t="s">
         <v>10</v>
       </c>
@@ -3743,67 +3690,67 @@
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
-      <c r="O61" s="148"/>
-      <c r="P61" s="148"/>
-      <c r="Q61" s="148"/>
-      <c r="R61" s="148"/>
-      <c r="S61" s="148"/>
-      <c r="T61" s="148"/>
-      <c r="U61" s="148"/>
-      <c r="V61" s="148"/>
-      <c r="W61" s="148"/>
-      <c r="X61" s="148"/>
-      <c r="Y61" s="148"/>
-      <c r="Z61" s="148"/>
-      <c r="AA61" s="148"/>
-      <c r="AB61" s="148"/>
-      <c r="AC61" s="148"/>
-      <c r="AD61" s="148"/>
-      <c r="AE61" s="148"/>
-      <c r="AF61" s="148"/>
-      <c r="AG61" s="148"/>
-      <c r="AH61" s="149"/>
+      <c r="O61" s="183"/>
+      <c r="P61" s="183"/>
+      <c r="Q61" s="183"/>
+      <c r="R61" s="183"/>
+      <c r="S61" s="183"/>
+      <c r="T61" s="183"/>
+      <c r="U61" s="183"/>
+      <c r="V61" s="183"/>
+      <c r="W61" s="183"/>
+      <c r="X61" s="183"/>
+      <c r="Y61" s="183"/>
+      <c r="Z61" s="183"/>
+      <c r="AA61" s="183"/>
+      <c r="AB61" s="183"/>
+      <c r="AC61" s="183"/>
+      <c r="AD61" s="183"/>
+      <c r="AE61" s="183"/>
+      <c r="AF61" s="183"/>
+      <c r="AG61" s="183"/>
+      <c r="AH61" s="184"/>
       <c r="AI61" s="2"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A62" s="158"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="151"/>
-      <c r="E62" s="151"/>
-      <c r="F62" s="151"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="152"/>
-      <c r="Q62" s="152"/>
-      <c r="R62" s="152"/>
-      <c r="S62" s="152"/>
-      <c r="T62" s="152"/>
-      <c r="U62" s="152"/>
-      <c r="V62" s="152"/>
-      <c r="W62" s="152"/>
-      <c r="X62" s="152"/>
-      <c r="Y62" s="152"/>
-      <c r="Z62" s="152"/>
-      <c r="AA62" s="151"/>
-      <c r="AB62" s="151"/>
-      <c r="AC62" s="151"/>
-      <c r="AD62" s="151"/>
-      <c r="AE62" s="151"/>
-      <c r="AF62" s="151"/>
-      <c r="AG62" s="151"/>
-      <c r="AH62" s="153"/>
+      <c r="A62" s="167"/>
+      <c r="B62" s="185"/>
+      <c r="C62" s="186"/>
+      <c r="D62" s="186"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="186"/>
+      <c r="G62" s="186"/>
+      <c r="H62" s="186"/>
+      <c r="I62" s="187"/>
+      <c r="J62" s="187"/>
+      <c r="K62" s="187"/>
+      <c r="L62" s="187"/>
+      <c r="M62" s="187"/>
+      <c r="N62" s="187"/>
+      <c r="O62" s="187"/>
+      <c r="P62" s="187"/>
+      <c r="Q62" s="187"/>
+      <c r="R62" s="187"/>
+      <c r="S62" s="187"/>
+      <c r="T62" s="187"/>
+      <c r="U62" s="187"/>
+      <c r="V62" s="187"/>
+      <c r="W62" s="187"/>
+      <c r="X62" s="187"/>
+      <c r="Y62" s="187"/>
+      <c r="Z62" s="187"/>
+      <c r="AA62" s="186"/>
+      <c r="AB62" s="186"/>
+      <c r="AC62" s="186"/>
+      <c r="AD62" s="186"/>
+      <c r="AE62" s="186"/>
+      <c r="AF62" s="186"/>
+      <c r="AG62" s="186"/>
+      <c r="AH62" s="188"/>
       <c r="AI62" s="2"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A63" s="158"/>
+      <c r="A63" s="167"/>
       <c r="B63" s="57" t="s">
         <v>15</v>
       </c>
@@ -3846,32 +3793,32 @@
       <c r="AI63" s="2"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A64" s="158"/>
-      <c r="B64" s="130"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="131"/>
-      <c r="G64" s="131"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="136"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="137"/>
-      <c r="L64" s="137"/>
-      <c r="M64" s="137"/>
-      <c r="N64" s="137"/>
-      <c r="O64" s="137"/>
-      <c r="P64" s="137"/>
-      <c r="Q64" s="137"/>
-      <c r="R64" s="137"/>
-      <c r="S64" s="137"/>
-      <c r="T64" s="137"/>
-      <c r="U64" s="137"/>
-      <c r="V64" s="137"/>
-      <c r="W64" s="137"/>
-      <c r="X64" s="137"/>
-      <c r="Y64" s="137"/>
-      <c r="Z64" s="138"/>
+      <c r="A64" s="167"/>
+      <c r="B64" s="190"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="191"/>
+      <c r="E64" s="191"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="191"/>
+      <c r="H64" s="192"/>
+      <c r="I64" s="196"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
+      <c r="M64" s="197"/>
+      <c r="N64" s="197"/>
+      <c r="O64" s="197"/>
+      <c r="P64" s="197"/>
+      <c r="Q64" s="197"/>
+      <c r="R64" s="197"/>
+      <c r="S64" s="197"/>
+      <c r="T64" s="197"/>
+      <c r="U64" s="197"/>
+      <c r="V64" s="197"/>
+      <c r="W64" s="197"/>
+      <c r="X64" s="197"/>
+      <c r="Y64" s="197"/>
+      <c r="Z64" s="198"/>
       <c r="AA64" s="104"/>
       <c r="AB64" s="101"/>
       <c r="AC64" s="89" t="s">
@@ -3881,39 +3828,39 @@
       <c r="AE64" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AF64" s="154"/>
-      <c r="AG64" s="154"/>
+      <c r="AF64" s="138"/>
+      <c r="AG64" s="138"/>
       <c r="AH64" s="105"/>
       <c r="AI64" s="2"/>
       <c r="AN64" s="117"/>
     </row>
     <row r="65" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="158"/>
-      <c r="B65" s="133"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="139"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="140"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="140"/>
-      <c r="N65" s="140"/>
-      <c r="O65" s="140"/>
-      <c r="P65" s="140"/>
-      <c r="Q65" s="140"/>
-      <c r="R65" s="140"/>
-      <c r="S65" s="140"/>
-      <c r="T65" s="140"/>
-      <c r="U65" s="140"/>
-      <c r="V65" s="140"/>
-      <c r="W65" s="140"/>
-      <c r="X65" s="140"/>
-      <c r="Y65" s="140"/>
-      <c r="Z65" s="141"/>
+      <c r="A65" s="167"/>
+      <c r="B65" s="193"/>
+      <c r="C65" s="194"/>
+      <c r="D65" s="194"/>
+      <c r="E65" s="194"/>
+      <c r="F65" s="194"/>
+      <c r="G65" s="194"/>
+      <c r="H65" s="195"/>
+      <c r="I65" s="199"/>
+      <c r="J65" s="200"/>
+      <c r="K65" s="200"/>
+      <c r="L65" s="200"/>
+      <c r="M65" s="200"/>
+      <c r="N65" s="200"/>
+      <c r="O65" s="200"/>
+      <c r="P65" s="200"/>
+      <c r="Q65" s="200"/>
+      <c r="R65" s="200"/>
+      <c r="S65" s="200"/>
+      <c r="T65" s="200"/>
+      <c r="U65" s="200"/>
+      <c r="V65" s="200"/>
+      <c r="W65" s="200"/>
+      <c r="X65" s="200"/>
+      <c r="Y65" s="200"/>
+      <c r="Z65" s="201"/>
       <c r="AA65" s="23"/>
       <c r="AB65" s="23"/>
       <c r="AC65" s="23"/>
@@ -3925,7 +3872,7 @@
       <c r="AI65" s="2"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" s="158"/>
+      <c r="A66" s="167"/>
       <c r="B66" s="57"/>
       <c r="C66" s="18"/>
       <c r="D66" s="91"/>
@@ -3962,78 +3909,78 @@
       <c r="AI66" s="2"/>
     </row>
     <row r="67" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="158"/>
+      <c r="A67" s="167"/>
       <c r="B67" s="19"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
-      <c r="E67" s="145"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="145"/>
-      <c r="H67" s="145"/>
-      <c r="I67" s="145"/>
-      <c r="J67" s="145"/>
-      <c r="K67" s="145"/>
-      <c r="L67" s="145"/>
-      <c r="M67" s="145"/>
-      <c r="N67" s="145"/>
-      <c r="O67" s="145"/>
-      <c r="P67" s="145"/>
-      <c r="Q67" s="145"/>
-      <c r="R67" s="145"/>
-      <c r="S67" s="145"/>
-      <c r="T67" s="145"/>
-      <c r="U67" s="145"/>
-      <c r="V67" s="145"/>
-      <c r="W67" s="145"/>
-      <c r="X67" s="145"/>
-      <c r="Y67" s="145"/>
-      <c r="Z67" s="145"/>
-      <c r="AA67" s="145"/>
-      <c r="AB67" s="145"/>
-      <c r="AC67" s="145"/>
-      <c r="AD67" s="145"/>
-      <c r="AE67" s="145"/>
-      <c r="AF67" s="145"/>
-      <c r="AG67" s="145"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
+      <c r="E67" s="182"/>
+      <c r="F67" s="182"/>
+      <c r="G67" s="182"/>
+      <c r="H67" s="182"/>
+      <c r="I67" s="182"/>
+      <c r="J67" s="182"/>
+      <c r="K67" s="182"/>
+      <c r="L67" s="182"/>
+      <c r="M67" s="182"/>
+      <c r="N67" s="182"/>
+      <c r="O67" s="182"/>
+      <c r="P67" s="182"/>
+      <c r="Q67" s="182"/>
+      <c r="R67" s="182"/>
+      <c r="S67" s="182"/>
+      <c r="T67" s="182"/>
+      <c r="U67" s="182"/>
+      <c r="V67" s="182"/>
+      <c r="W67" s="182"/>
+      <c r="X67" s="182"/>
+      <c r="Y67" s="182"/>
+      <c r="Z67" s="182"/>
+      <c r="AA67" s="182"/>
+      <c r="AB67" s="182"/>
+      <c r="AC67" s="182"/>
+      <c r="AD67" s="182"/>
+      <c r="AE67" s="182"/>
+      <c r="AF67" s="182"/>
+      <c r="AG67" s="182"/>
       <c r="AH67" s="20"/>
       <c r="AI67" s="2"/>
     </row>
     <row r="68" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="158"/>
+      <c r="A68" s="167"/>
       <c r="B68" s="33"/>
-      <c r="C68" s="129" t="s">
+      <c r="C68" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="129"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="129"/>
-      <c r="H68" s="129"/>
-      <c r="I68" s="129"/>
-      <c r="J68" s="129"/>
-      <c r="K68" s="129"/>
-      <c r="L68" s="129"/>
-      <c r="M68" s="129"/>
-      <c r="N68" s="129"/>
-      <c r="O68" s="129"/>
-      <c r="P68" s="129"/>
-      <c r="Q68" s="129"/>
-      <c r="R68" s="129"/>
-      <c r="S68" s="129"/>
-      <c r="T68" s="129"/>
-      <c r="U68" s="129"/>
-      <c r="V68" s="129"/>
-      <c r="W68" s="129"/>
-      <c r="X68" s="129"/>
-      <c r="Y68" s="129"/>
-      <c r="Z68" s="129"/>
-      <c r="AA68" s="129"/>
-      <c r="AB68" s="129"/>
-      <c r="AC68" s="129"/>
-      <c r="AD68" s="129"/>
-      <c r="AE68" s="129"/>
-      <c r="AF68" s="129"/>
-      <c r="AG68" s="129"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="146"/>
+      <c r="I68" s="146"/>
+      <c r="J68" s="146"/>
+      <c r="K68" s="146"/>
+      <c r="L68" s="146"/>
+      <c r="M68" s="146"/>
+      <c r="N68" s="146"/>
+      <c r="O68" s="146"/>
+      <c r="P68" s="146"/>
+      <c r="Q68" s="146"/>
+      <c r="R68" s="146"/>
+      <c r="S68" s="146"/>
+      <c r="T68" s="146"/>
+      <c r="U68" s="146"/>
+      <c r="V68" s="146"/>
+      <c r="W68" s="146"/>
+      <c r="X68" s="146"/>
+      <c r="Y68" s="146"/>
+      <c r="Z68" s="146"/>
+      <c r="AA68" s="146"/>
+      <c r="AB68" s="146"/>
+      <c r="AC68" s="146"/>
+      <c r="AD68" s="146"/>
+      <c r="AE68" s="146"/>
+      <c r="AF68" s="146"/>
+      <c r="AG68" s="146"/>
       <c r="AH68" s="26"/>
       <c r="AI68" s="2"/>
     </row>
@@ -4051,30 +3998,30 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="120" t="s">
+      <c r="M69" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="N69" s="120"/>
-      <c r="O69" s="120"/>
-      <c r="P69" s="120"/>
-      <c r="Q69" s="120"/>
-      <c r="R69" s="120"/>
-      <c r="S69" s="120"/>
-      <c r="T69" s="120"/>
-      <c r="U69" s="120"/>
-      <c r="V69" s="120"/>
-      <c r="W69" s="120"/>
-      <c r="X69" s="120"/>
-      <c r="Y69" s="120"/>
-      <c r="Z69" s="120"/>
-      <c r="AA69" s="120"/>
-      <c r="AB69" s="120"/>
-      <c r="AC69" s="120"/>
-      <c r="AD69" s="120"/>
-      <c r="AE69" s="120"/>
-      <c r="AF69" s="120"/>
-      <c r="AG69" s="120"/>
-      <c r="AH69" s="120"/>
+      <c r="N69" s="189"/>
+      <c r="O69" s="189"/>
+      <c r="P69" s="189"/>
+      <c r="Q69" s="189"/>
+      <c r="R69" s="189"/>
+      <c r="S69" s="189"/>
+      <c r="T69" s="189"/>
+      <c r="U69" s="189"/>
+      <c r="V69" s="189"/>
+      <c r="W69" s="189"/>
+      <c r="X69" s="189"/>
+      <c r="Y69" s="189"/>
+      <c r="Z69" s="189"/>
+      <c r="AA69" s="189"/>
+      <c r="AB69" s="189"/>
+      <c r="AC69" s="189"/>
+      <c r="AD69" s="189"/>
+      <c r="AE69" s="189"/>
+      <c r="AF69" s="189"/>
+      <c r="AG69" s="189"/>
+      <c r="AH69" s="189"/>
     </row>
     <row r="70" spans="1:35" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="17" t="s">
@@ -4139,7 +4086,79 @@
     </row>
     <row r="72" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="88">
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="M69:AH69"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="G46:AF46"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="C68:AG68"/>
+    <mergeCell ref="B64:H65"/>
+    <mergeCell ref="I64:Z65"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="B27:AH27"/>
+    <mergeCell ref="C67:AG67"/>
+    <mergeCell ref="G45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="O61:AH61"/>
+    <mergeCell ref="B62:AH62"/>
+    <mergeCell ref="AF64:AG64"/>
+    <mergeCell ref="B22:AH22"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="A55:A68"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="B3:AH3"/>
+    <mergeCell ref="V7:AH7"/>
+    <mergeCell ref="B7:U7"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B39:AH39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B44:AH44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B23:AH23"/>
+    <mergeCell ref="B11:AH11"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B15:AH15"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="B17:J18"/>
+    <mergeCell ref="B20:AH20"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G28:AF28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:AF32"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
     <mergeCell ref="L1:AG2"/>
     <mergeCell ref="S47:AH47"/>
     <mergeCell ref="B51:AH51"/>
@@ -4156,82 +4175,10 @@
     <mergeCell ref="G41:AF41"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="G28:AF28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:AF32"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="B17:J18"/>
-    <mergeCell ref="B20:AH20"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B22:AH22"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="A55:A68"/>
-    <mergeCell ref="A3:A49"/>
-    <mergeCell ref="B3:AH3"/>
-    <mergeCell ref="V7:AH7"/>
-    <mergeCell ref="B7:U7"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B39:AH39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B44:AH44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B23:AH23"/>
-    <mergeCell ref="B11:AH11"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B15:AH15"/>
-    <mergeCell ref="B27:AH27"/>
-    <mergeCell ref="C67:AG67"/>
-    <mergeCell ref="G45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="O61:AH61"/>
-    <mergeCell ref="B62:AH62"/>
-    <mergeCell ref="AF64:AG64"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="M69:AH69"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="G46:AF46"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="C68:AG68"/>
-    <mergeCell ref="B64:H65"/>
-    <mergeCell ref="I64:Z65"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>